--- a/public/assets/repo.xlsx
+++ b/public/assets/repo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC PRO L5V\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC PRO L5V\Downloads\generate-bast\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="707">
   <si>
     <t>idsubsls</t>
   </si>
@@ -792,123 +792,81 @@
     <t>3513210003000500</t>
   </si>
   <si>
-    <t>RT 01 RW 02 DUSUN KARANG TENGAH</t>
-  </si>
-  <si>
     <t>SAMO</t>
   </si>
   <si>
     <t>3513210003000600</t>
   </si>
   <si>
-    <t>RT 02 RW 02 DUSUN KARANG TENGAH</t>
-  </si>
-  <si>
     <t>YUNUS</t>
   </si>
   <si>
     <t>3513210003000700</t>
   </si>
   <si>
-    <t>RT 03 RW 02 DUSUN KARANG TENGAH</t>
-  </si>
-  <si>
     <t>SINAL</t>
   </si>
   <si>
     <t>3513210003000800</t>
   </si>
   <si>
-    <t>RT 04 RW 02 DUSUN KARANG TENGAH</t>
-  </si>
-  <si>
     <t>NALI</t>
   </si>
   <si>
     <t>3513210003000900</t>
   </si>
   <si>
-    <t>RT 01 RW 03 DUSUN SOSOAN</t>
-  </si>
-  <si>
     <t>SOLIHIN</t>
   </si>
   <si>
     <t>3513210003001000</t>
   </si>
   <si>
-    <t>RT 02 RW 03 DUSUN SOSOAN</t>
-  </si>
-  <si>
     <t>BIDIN</t>
   </si>
   <si>
     <t>3513210003001100</t>
   </si>
   <si>
-    <t>RT 03 RW 03 DUSUN SOSOAN</t>
-  </si>
-  <si>
     <t>TOMO</t>
   </si>
   <si>
     <t>3513210003001200</t>
   </si>
   <si>
-    <t>RT 01 RW 04 DUSUN BUKOL</t>
-  </si>
-  <si>
     <t>SARTO</t>
   </si>
   <si>
     <t>3513210003001300</t>
   </si>
   <si>
-    <t>RT 02 RW 04 DUSUN BUKOL</t>
-  </si>
-  <si>
     <t>YUDI</t>
   </si>
   <si>
     <t>3513210003001400</t>
   </si>
   <si>
-    <t>RT 03 RW 04 DUSUN BUKOL</t>
-  </si>
-  <si>
     <t>HAMISUL</t>
   </si>
   <si>
     <t>3513210003001500</t>
   </si>
   <si>
-    <t>RT 01 RW 05 DUSUN MANGGAR</t>
-  </si>
-  <si>
     <t>EMOE</t>
   </si>
   <si>
     <t>3513210003001600</t>
   </si>
   <si>
-    <t>RT 02 RW 05 DUSUN MANGGAR</t>
-  </si>
-  <si>
     <t>3513210003001700</t>
   </si>
   <si>
-    <t>RT 03 RW 05 DUSUN MANGGAR</t>
-  </si>
-  <si>
     <t>JUSUP</t>
   </si>
   <si>
     <t>3513210003001800</t>
   </si>
   <si>
-    <t>RT 04 RW 05 DUSUN MANGGAR</t>
-  </si>
-  <si>
     <t>SITAWAR</t>
   </si>
   <si>
@@ -2137,6 +2095,51 @@
   </si>
   <si>
     <t>LAHAN LADANG PERTANIAN</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>RT 05 RW 02 DUSUN KARANG TENGAH</t>
+  </si>
+  <si>
+    <t>RT 06 RW 02 DUSUN KARANG TENGAH</t>
+  </si>
+  <si>
+    <t>RT 07 RW 02 DUSUN KARANG TENGAH</t>
+  </si>
+  <si>
+    <t>RT 08 RW 02 DUSUN KARANG TENGAH</t>
+  </si>
+  <si>
+    <t>RT 09 RW 03 DUSUN SOSOAN</t>
+  </si>
+  <si>
+    <t>RT 10 RW 03 DUSUN SOSOAN</t>
+  </si>
+  <si>
+    <t>RT 11 RW 03 DUSUN SOSOAN</t>
+  </si>
+  <si>
+    <t>RT 12  RW 04 dusun bukol</t>
+  </si>
+  <si>
+    <t>RT 13 RW 04 DUSUN BUKOL</t>
+  </si>
+  <si>
+    <t>RT 14 RW 04 DUSUN BUKOL</t>
+  </si>
+  <si>
+    <t>RT15 RW 05 DUSUN MANGGAR</t>
+  </si>
+  <si>
+    <t>RT 16 RW 05 DUSUN MANGGAR</t>
+  </si>
+  <si>
+    <t>RT 17  RW 05 DUSUN MANGGAR</t>
+  </si>
+  <si>
+    <t>RT 18 RW 05 DUSUN MANGGAR</t>
   </si>
 </sst>
 </file>
@@ -2515,17 +2518,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2605,7 +2608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2682,7 +2685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2759,7 +2762,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -2824,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="X4">
         <v>20</v>
@@ -2836,7 +2839,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -2913,7 +2916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -3067,7 +3070,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -3101,6 +3104,42 @@
       <c r="L8">
         <v>0</v>
       </c>
+      <c r="M8">
+        <v>65</v>
+      </c>
+      <c r="N8">
+        <v>64</v>
+      </c>
+      <c r="O8">
+        <v>54</v>
+      </c>
+      <c r="P8">
+        <v>15</v>
+      </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>40</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>7</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>57</v>
+      </c>
+      <c r="X8">
+        <v>51</v>
+      </c>
       <c r="Y8" t="s">
         <v>35</v>
       </c>
@@ -3108,7 +3147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -3185,7 +3224,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -3262,7 +3301,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -3296,6 +3335,42 @@
       <c r="L11">
         <v>0</v>
       </c>
+      <c r="M11">
+        <v>35</v>
+      </c>
+      <c r="N11">
+        <v>33</v>
+      </c>
+      <c r="O11">
+        <v>26</v>
+      </c>
+      <c r="P11">
+        <v>19</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <v>11</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>25</v>
+      </c>
+      <c r="X11">
+        <v>25</v>
+      </c>
       <c r="Y11" t="s">
         <v>35</v>
       </c>
@@ -3303,7 +3378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -3368,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="X12">
         <v>54</v>
@@ -3380,7 +3455,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -3414,6 +3489,42 @@
       <c r="L13">
         <v>0</v>
       </c>
+      <c r="M13">
+        <v>57</v>
+      </c>
+      <c r="N13">
+        <v>52</v>
+      </c>
+      <c r="O13">
+        <v>39</v>
+      </c>
+      <c r="P13">
+        <v>27</v>
+      </c>
+      <c r="Q13">
+        <v>16</v>
+      </c>
+      <c r="R13">
+        <v>27</v>
+      </c>
+      <c r="S13">
+        <v>17</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>35</v>
+      </c>
+      <c r="X13">
+        <v>34</v>
+      </c>
       <c r="Y13" t="s">
         <v>35</v>
       </c>
@@ -3421,7 +3532,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -3455,6 +3566,42 @@
       <c r="L14">
         <v>0</v>
       </c>
+      <c r="M14">
+        <v>27</v>
+      </c>
+      <c r="N14">
+        <v>20</v>
+      </c>
+      <c r="O14">
+        <v>25</v>
+      </c>
+      <c r="P14">
+        <v>17</v>
+      </c>
+      <c r="Q14">
+        <v>17</v>
+      </c>
+      <c r="R14">
+        <v>17</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>21</v>
+      </c>
+      <c r="X14">
+        <v>21</v>
+      </c>
       <c r="Y14" t="s">
         <v>35</v>
       </c>
@@ -3462,7 +3609,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -3496,6 +3643,42 @@
       <c r="L15">
         <v>0</v>
       </c>
+      <c r="M15">
+        <v>57</v>
+      </c>
+      <c r="N15">
+        <v>54</v>
+      </c>
+      <c r="O15">
+        <v>56</v>
+      </c>
+      <c r="P15">
+        <v>32</v>
+      </c>
+      <c r="Q15">
+        <v>24</v>
+      </c>
+      <c r="R15">
+        <v>24</v>
+      </c>
+      <c r="S15">
+        <v>40</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>56</v>
+      </c>
+      <c r="X15">
+        <v>56</v>
+      </c>
       <c r="Y15" t="s">
         <v>35</v>
       </c>
@@ -3503,7 +3686,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -3580,7 +3763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -3657,7 +3840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -3734,7 +3917,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -3811,7 +3994,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>105</v>
       </c>
@@ -3888,7 +4071,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>109</v>
       </c>
@@ -3965,7 +4148,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -4042,7 +4225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -4119,7 +4302,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>121</v>
       </c>
@@ -4196,7 +4379,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>125</v>
       </c>
@@ -4273,7 +4456,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -4350,7 +4533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>133</v>
       </c>
@@ -4384,6 +4567,42 @@
       <c r="L27">
         <v>0</v>
       </c>
+      <c r="M27">
+        <v>30</v>
+      </c>
+      <c r="N27">
+        <v>30</v>
+      </c>
+      <c r="O27">
+        <v>21</v>
+      </c>
+      <c r="P27">
+        <v>17</v>
+      </c>
+      <c r="Q27">
+        <v>14</v>
+      </c>
+      <c r="R27">
+        <v>17</v>
+      </c>
+      <c r="S27">
+        <v>10</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>20</v>
+      </c>
+      <c r="X27">
+        <v>20</v>
+      </c>
       <c r="Y27" t="s">
         <v>35</v>
       </c>
@@ -4391,7 +4610,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -4414,11 +4633,14 @@
         <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I28" t="s">
         <v>140</v>
       </c>
+      <c r="J28" t="s">
+        <v>692</v>
+      </c>
       <c r="K28">
         <v>0</v>
       </c>
@@ -4468,7 +4690,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -4491,11 +4713,14 @@
         <v>32</v>
       </c>
       <c r="H29" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I29" t="s">
         <v>144</v>
       </c>
+      <c r="J29" t="s">
+        <v>692</v>
+      </c>
       <c r="K29">
         <v>0</v>
       </c>
@@ -4545,7 +4770,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>145</v>
       </c>
@@ -4568,11 +4793,14 @@
         <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I30" t="s">
         <v>52</v>
       </c>
+      <c r="J30" t="s">
+        <v>692</v>
+      </c>
       <c r="K30">
         <v>0</v>
       </c>
@@ -4622,7 +4850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>148</v>
       </c>
@@ -4656,6 +4884,42 @@
       <c r="L31">
         <v>0</v>
       </c>
+      <c r="M31">
+        <v>47</v>
+      </c>
+      <c r="N31">
+        <v>48</v>
+      </c>
+      <c r="O31">
+        <v>38</v>
+      </c>
+      <c r="P31">
+        <v>33</v>
+      </c>
+      <c r="Q31">
+        <v>32</v>
+      </c>
+      <c r="R31">
+        <v>33</v>
+      </c>
+      <c r="S31">
+        <v>16</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>38</v>
+      </c>
+      <c r="X31">
+        <v>38</v>
+      </c>
       <c r="Y31" t="s">
         <v>35</v>
       </c>
@@ -4663,7 +4927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -4740,7 +5004,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>155</v>
       </c>
@@ -4774,6 +5038,42 @@
       <c r="L33">
         <v>0</v>
       </c>
+      <c r="M33">
+        <v>56</v>
+      </c>
+      <c r="N33">
+        <v>52</v>
+      </c>
+      <c r="O33">
+        <v>44</v>
+      </c>
+      <c r="P33">
+        <v>42</v>
+      </c>
+      <c r="Q33">
+        <v>42</v>
+      </c>
+      <c r="R33">
+        <v>42</v>
+      </c>
+      <c r="S33">
+        <v>11</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>43</v>
+      </c>
+      <c r="X33">
+        <v>43</v>
+      </c>
       <c r="Y33" t="s">
         <v>35</v>
       </c>
@@ -4781,7 +5081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>159</v>
       </c>
@@ -4858,7 +5158,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>163</v>
       </c>
@@ -4935,7 +5235,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>167</v>
       </c>
@@ -5012,7 +5312,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>171</v>
       </c>
@@ -5089,7 +5389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>175</v>
       </c>
@@ -5118,7 +5418,7 @@
         <v>178</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -5166,7 +5466,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>179</v>
       </c>
@@ -5195,7 +5495,7 @@
         <v>182</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -5243,7 +5543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>183</v>
       </c>
@@ -5320,7 +5620,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>187</v>
       </c>
@@ -5397,7 +5697,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>190</v>
       </c>
@@ -5426,7 +5726,7 @@
         <v>193</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -5474,7 +5774,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>196</v>
       </c>
@@ -5508,6 +5808,42 @@
       <c r="L43">
         <v>0</v>
       </c>
+      <c r="M43">
+        <v>96</v>
+      </c>
+      <c r="N43">
+        <v>90</v>
+      </c>
+      <c r="O43">
+        <v>90</v>
+      </c>
+      <c r="P43">
+        <v>40</v>
+      </c>
+      <c r="Q43">
+        <v>33</v>
+      </c>
+      <c r="R43">
+        <v>10</v>
+      </c>
+      <c r="S43">
+        <v>61</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>65</v>
+      </c>
+      <c r="X43">
+        <v>65</v>
+      </c>
       <c r="Y43" t="s">
         <v>194</v>
       </c>
@@ -5515,7 +5851,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>199</v>
       </c>
@@ -5592,7 +5928,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>202</v>
       </c>
@@ -5669,7 +6005,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>205</v>
       </c>
@@ -5703,6 +6039,42 @@
       <c r="L46">
         <v>0</v>
       </c>
+      <c r="M46">
+        <v>39</v>
+      </c>
+      <c r="N46">
+        <v>37</v>
+      </c>
+      <c r="O46">
+        <v>31</v>
+      </c>
+      <c r="P46">
+        <v>21</v>
+      </c>
+      <c r="Q46">
+        <v>21</v>
+      </c>
+      <c r="R46">
+        <v>4</v>
+      </c>
+      <c r="S46">
+        <v>16</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>31</v>
+      </c>
+      <c r="X46">
+        <v>29</v>
+      </c>
       <c r="Y46" t="s">
         <v>208</v>
       </c>
@@ -5710,7 +6082,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>210</v>
       </c>
@@ -5787,7 +6159,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>213</v>
       </c>
@@ -5864,7 +6236,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>216</v>
       </c>
@@ -5941,7 +6313,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>219</v>
       </c>
@@ -6006,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X50">
         <v>37</v>
@@ -6018,7 +6390,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>222</v>
       </c>
@@ -6052,6 +6424,42 @@
       <c r="L51">
         <v>0</v>
       </c>
+      <c r="M51">
+        <v>99</v>
+      </c>
+      <c r="N51">
+        <v>78</v>
+      </c>
+      <c r="O51">
+        <v>72</v>
+      </c>
+      <c r="P51">
+        <v>66</v>
+      </c>
+      <c r="Q51">
+        <v>3</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
+        <v>55</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>72</v>
+      </c>
+      <c r="X51">
+        <v>72</v>
+      </c>
       <c r="Y51" t="s">
         <v>208</v>
       </c>
@@ -6059,7 +6467,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>225</v>
       </c>
@@ -6093,6 +6501,42 @@
       <c r="L52">
         <v>0</v>
       </c>
+      <c r="M52">
+        <v>71</v>
+      </c>
+      <c r="N52">
+        <v>68</v>
+      </c>
+      <c r="O52">
+        <v>56</v>
+      </c>
+      <c r="P52">
+        <v>50</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>37</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>51</v>
+      </c>
+      <c r="X52">
+        <v>51</v>
+      </c>
       <c r="Y52" t="s">
         <v>208</v>
       </c>
@@ -6100,7 +6544,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>228</v>
       </c>
@@ -6177,7 +6621,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>231</v>
       </c>
@@ -6254,7 +6698,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>234</v>
       </c>
@@ -6331,7 +6775,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>237</v>
       </c>
@@ -6365,6 +6809,42 @@
       <c r="L56">
         <v>0</v>
       </c>
+      <c r="M56">
+        <v>59</v>
+      </c>
+      <c r="N56">
+        <v>58</v>
+      </c>
+      <c r="O56">
+        <v>57</v>
+      </c>
+      <c r="P56">
+        <v>53</v>
+      </c>
+      <c r="Q56">
+        <v>9</v>
+      </c>
+      <c r="R56">
+        <v>32</v>
+      </c>
+      <c r="S56">
+        <v>30</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>57</v>
+      </c>
+      <c r="X56">
+        <v>57</v>
+      </c>
       <c r="Y56" t="s">
         <v>194</v>
       </c>
@@ -6372,7 +6852,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>240</v>
       </c>
@@ -6406,6 +6886,42 @@
       <c r="L57">
         <v>0</v>
       </c>
+      <c r="M57">
+        <v>54</v>
+      </c>
+      <c r="N57">
+        <v>54</v>
+      </c>
+      <c r="O57">
+        <v>47</v>
+      </c>
+      <c r="P57">
+        <v>45</v>
+      </c>
+      <c r="Q57">
+        <v>25</v>
+      </c>
+      <c r="R57">
+        <v>22</v>
+      </c>
+      <c r="S57">
+        <v>33</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>47</v>
+      </c>
+      <c r="X57">
+        <v>47</v>
+      </c>
       <c r="Y57" t="s">
         <v>194</v>
       </c>
@@ -6413,7 +6929,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>243</v>
       </c>
@@ -6490,7 +7006,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>246</v>
       </c>
@@ -6524,6 +7040,42 @@
       <c r="L59">
         <v>0</v>
       </c>
+      <c r="M59">
+        <v>64</v>
+      </c>
+      <c r="N59">
+        <v>64</v>
+      </c>
+      <c r="O59">
+        <v>50</v>
+      </c>
+      <c r="P59">
+        <v>45</v>
+      </c>
+      <c r="Q59">
+        <v>16</v>
+      </c>
+      <c r="R59">
+        <v>35</v>
+      </c>
+      <c r="S59">
+        <v>28</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>46</v>
+      </c>
+      <c r="X59">
+        <v>46</v>
+      </c>
       <c r="Y59" t="s">
         <v>194</v>
       </c>
@@ -6531,7 +7083,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>249</v>
       </c>
@@ -6565,6 +7117,42 @@
       <c r="L60">
         <v>0</v>
       </c>
+      <c r="M60">
+        <v>58</v>
+      </c>
+      <c r="N60">
+        <v>58</v>
+      </c>
+      <c r="O60">
+        <v>49</v>
+      </c>
+      <c r="P60">
+        <v>26</v>
+      </c>
+      <c r="Q60">
+        <v>6</v>
+      </c>
+      <c r="R60">
+        <v>7</v>
+      </c>
+      <c r="S60">
+        <v>37</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>40</v>
+      </c>
+      <c r="X60">
+        <v>40</v>
+      </c>
       <c r="Y60" t="s">
         <v>194</v>
       </c>
@@ -6572,7 +7160,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>251</v>
       </c>
@@ -6606,6 +7194,42 @@
       <c r="L61">
         <v>0</v>
       </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>101</v>
+      </c>
+      <c r="O61">
+        <v>78</v>
+      </c>
+      <c r="P61">
+        <v>65</v>
+      </c>
+      <c r="Q61">
+        <v>8</v>
+      </c>
+      <c r="R61">
+        <v>3</v>
+      </c>
+      <c r="S61">
+        <v>66</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>72</v>
+      </c>
+      <c r="X61">
+        <v>72</v>
+      </c>
       <c r="Y61" t="s">
         <v>194</v>
       </c>
@@ -6613,7 +7237,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>253</v>
       </c>
@@ -6647,6 +7271,42 @@
       <c r="L62">
         <v>0</v>
       </c>
+      <c r="M62">
+        <v>79</v>
+      </c>
+      <c r="N62">
+        <v>76</v>
+      </c>
+      <c r="O62">
+        <v>56</v>
+      </c>
+      <c r="P62">
+        <v>48</v>
+      </c>
+      <c r="Q62">
+        <v>25</v>
+      </c>
+      <c r="R62">
+        <v>23</v>
+      </c>
+      <c r="S62">
+        <v>47</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>54</v>
+      </c>
+      <c r="X62">
+        <v>54</v>
+      </c>
       <c r="Y62" t="s">
         <v>194</v>
       </c>
@@ -6654,7 +7314,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>256</v>
       </c>
@@ -6677,10 +7337,13 @@
         <v>32</v>
       </c>
       <c r="H63" t="s">
+        <v>693</v>
+      </c>
+      <c r="I63" t="s">
         <v>257</v>
       </c>
-      <c r="I63" t="s">
-        <v>258</v>
+      <c r="J63" t="s">
+        <v>692</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -6731,9 +7394,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B64" t="s">
         <v>27</v>
@@ -6754,16 +7417,55 @@
         <v>32</v>
       </c>
       <c r="H64" t="s">
-        <v>260</v>
+        <v>694</v>
       </c>
       <c r="I64" t="s">
-        <v>261</v>
+        <v>259</v>
+      </c>
+      <c r="J64" t="s">
+        <v>692</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
       <c r="L64">
         <v>0</v>
+      </c>
+      <c r="M64">
+        <v>110</v>
+      </c>
+      <c r="N64">
+        <v>107</v>
+      </c>
+      <c r="O64">
+        <v>80</v>
+      </c>
+      <c r="P64">
+        <v>75</v>
+      </c>
+      <c r="Q64">
+        <v>41</v>
+      </c>
+      <c r="R64">
+        <v>61</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>77</v>
+      </c>
+      <c r="X64">
+        <v>77</v>
       </c>
       <c r="Y64" t="s">
         <v>194</v>
@@ -6772,9 +7474,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B65" t="s">
         <v>27</v>
@@ -6795,16 +7497,55 @@
         <v>32</v>
       </c>
       <c r="H65" t="s">
-        <v>263</v>
+        <v>695</v>
       </c>
       <c r="I65" t="s">
-        <v>264</v>
+        <v>261</v>
+      </c>
+      <c r="J65" t="s">
+        <v>692</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
         <v>0</v>
+      </c>
+      <c r="M65">
+        <v>46</v>
+      </c>
+      <c r="N65">
+        <v>46</v>
+      </c>
+      <c r="O65">
+        <v>31</v>
+      </c>
+      <c r="P65">
+        <v>23</v>
+      </c>
+      <c r="Q65">
+        <v>4</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>17</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>1</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>28</v>
+      </c>
+      <c r="X65">
+        <v>28</v>
       </c>
       <c r="Y65" t="s">
         <v>194</v>
@@ -6813,9 +7554,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B66" t="s">
         <v>27</v>
@@ -6836,16 +7577,55 @@
         <v>32</v>
       </c>
       <c r="H66" t="s">
-        <v>266</v>
+        <v>696</v>
       </c>
       <c r="I66" t="s">
-        <v>267</v>
+        <v>263</v>
+      </c>
+      <c r="J66" t="s">
+        <v>692</v>
       </c>
       <c r="K66">
         <v>0</v>
       </c>
       <c r="L66">
         <v>0</v>
+      </c>
+      <c r="M66">
+        <v>56</v>
+      </c>
+      <c r="N66">
+        <v>55</v>
+      </c>
+      <c r="O66">
+        <v>35</v>
+      </c>
+      <c r="P66">
+        <v>31</v>
+      </c>
+      <c r="Q66">
+        <v>5</v>
+      </c>
+      <c r="R66">
+        <v>7</v>
+      </c>
+      <c r="S66">
+        <v>28</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>33</v>
+      </c>
+      <c r="X66">
+        <v>33</v>
       </c>
       <c r="Y66" t="s">
         <v>194</v>
@@ -6854,9 +7634,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B67" t="s">
         <v>27</v>
@@ -6877,10 +7657,13 @@
         <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>269</v>
+        <v>697</v>
       </c>
       <c r="I67" t="s">
-        <v>270</v>
+        <v>265</v>
+      </c>
+      <c r="J67" t="s">
+        <v>692</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -6931,9 +7714,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B68" t="s">
         <v>27</v>
@@ -6954,10 +7737,13 @@
         <v>32</v>
       </c>
       <c r="H68" t="s">
-        <v>272</v>
+        <v>698</v>
       </c>
       <c r="I68" t="s">
-        <v>273</v>
+        <v>267</v>
+      </c>
+      <c r="J68" t="s">
+        <v>692</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -7008,9 +7794,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B69" t="s">
         <v>27</v>
@@ -7031,10 +7817,13 @@
         <v>32</v>
       </c>
       <c r="H69" t="s">
-        <v>275</v>
+        <v>699</v>
       </c>
       <c r="I69" t="s">
-        <v>276</v>
+        <v>269</v>
+      </c>
+      <c r="J69" t="s">
+        <v>692</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -7085,9 +7874,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B70" t="s">
         <v>27</v>
@@ -7108,10 +7897,13 @@
         <v>32</v>
       </c>
       <c r="H70" t="s">
-        <v>278</v>
+        <v>700</v>
       </c>
       <c r="I70" t="s">
-        <v>279</v>
+        <v>271</v>
+      </c>
+      <c r="J70" t="s">
+        <v>692</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -7162,9 +7954,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B71" t="s">
         <v>27</v>
@@ -7185,10 +7977,13 @@
         <v>32</v>
       </c>
       <c r="H71" t="s">
-        <v>281</v>
+        <v>701</v>
       </c>
       <c r="I71" t="s">
-        <v>282</v>
+        <v>273</v>
+      </c>
+      <c r="J71" t="s">
+        <v>692</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -7239,9 +8034,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B72" t="s">
         <v>27</v>
@@ -7262,10 +8057,13 @@
         <v>32</v>
       </c>
       <c r="H72" t="s">
-        <v>284</v>
+        <v>702</v>
       </c>
       <c r="I72" t="s">
-        <v>285</v>
+        <v>275</v>
+      </c>
+      <c r="J72" t="s">
+        <v>692</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -7316,9 +8114,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B73" t="s">
         <v>27</v>
@@ -7339,10 +8137,13 @@
         <v>32</v>
       </c>
       <c r="H73" t="s">
-        <v>287</v>
+        <v>703</v>
       </c>
       <c r="I73" t="s">
-        <v>288</v>
+        <v>277</v>
+      </c>
+      <c r="J73" t="s">
+        <v>692</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -7393,9 +8194,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B74" t="s">
         <v>27</v>
@@ -7416,11 +8217,14 @@
         <v>32</v>
       </c>
       <c r="H74" t="s">
-        <v>290</v>
+        <v>704</v>
       </c>
       <c r="I74" t="s">
         <v>100</v>
       </c>
+      <c r="J74" t="s">
+        <v>692</v>
+      </c>
       <c r="K74">
         <v>0</v>
       </c>
@@ -7470,9 +8274,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B75" t="s">
         <v>27</v>
@@ -7493,10 +8297,13 @@
         <v>32</v>
       </c>
       <c r="H75" t="s">
-        <v>292</v>
+        <v>705</v>
       </c>
       <c r="I75" t="s">
-        <v>293</v>
+        <v>280</v>
+      </c>
+      <c r="J75" t="s">
+        <v>692</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -7514,7 +8321,7 @@
         <v>48</v>
       </c>
       <c r="P75">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q75">
         <v>16</v>
@@ -7547,9 +8354,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B76" t="s">
         <v>27</v>
@@ -7570,16 +8377,55 @@
         <v>32</v>
       </c>
       <c r="H76" t="s">
-        <v>295</v>
+        <v>706</v>
       </c>
       <c r="I76" t="s">
-        <v>296</v>
+        <v>282</v>
+      </c>
+      <c r="J76" t="s">
+        <v>692</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
         <v>0</v>
+      </c>
+      <c r="M76">
+        <v>69</v>
+      </c>
+      <c r="N76">
+        <v>69</v>
+      </c>
+      <c r="O76">
+        <v>52</v>
+      </c>
+      <c r="P76">
+        <v>35</v>
+      </c>
+      <c r="Q76">
+        <v>5</v>
+      </c>
+      <c r="R76">
+        <v>6</v>
+      </c>
+      <c r="S76">
+        <v>40</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>3</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>48</v>
+      </c>
+      <c r="X76">
+        <v>45</v>
       </c>
       <c r="Y76" t="s">
         <v>194</v>
@@ -7588,9 +8434,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B77" t="s">
         <v>27</v>
@@ -7602,7 +8448,7 @@
         <v>29</v>
       </c>
       <c r="E77" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F77" t="s">
         <v>31</v>
@@ -7611,10 +8457,10 @@
         <v>32</v>
       </c>
       <c r="H77" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="I77" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -7665,9 +8511,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B78" t="s">
         <v>27</v>
@@ -7679,7 +8525,7 @@
         <v>29</v>
       </c>
       <c r="E78" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F78" t="s">
         <v>38</v>
@@ -7688,10 +8534,10 @@
         <v>32</v>
       </c>
       <c r="H78" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="I78" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -7742,9 +8588,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B79" t="s">
         <v>27</v>
@@ -7756,7 +8602,7 @@
         <v>29</v>
       </c>
       <c r="E79" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F79" t="s">
         <v>42</v>
@@ -7765,16 +8611,52 @@
         <v>32</v>
       </c>
       <c r="H79" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="I79" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="K79">
         <v>0</v>
       </c>
       <c r="L79">
         <v>0</v>
+      </c>
+      <c r="M79">
+        <v>130</v>
+      </c>
+      <c r="N79">
+        <v>126</v>
+      </c>
+      <c r="O79">
+        <v>103</v>
+      </c>
+      <c r="P79">
+        <v>55</v>
+      </c>
+      <c r="Q79">
+        <v>35</v>
+      </c>
+      <c r="R79">
+        <v>7</v>
+      </c>
+      <c r="S79">
+        <v>75</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>83</v>
+      </c>
+      <c r="X79">
+        <v>83</v>
       </c>
       <c r="Y79" t="s">
         <v>208</v>
@@ -7783,9 +8665,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B80" t="s">
         <v>27</v>
@@ -7797,7 +8679,7 @@
         <v>29</v>
       </c>
       <c r="E80" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F80" t="s">
         <v>46</v>
@@ -7806,16 +8688,52 @@
         <v>32</v>
       </c>
       <c r="H80" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="I80" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="K80">
         <v>0</v>
       </c>
       <c r="L80">
         <v>0</v>
+      </c>
+      <c r="M80">
+        <v>74</v>
+      </c>
+      <c r="N80">
+        <v>73</v>
+      </c>
+      <c r="O80">
+        <v>60</v>
+      </c>
+      <c r="P80">
+        <v>34</v>
+      </c>
+      <c r="Q80">
+        <v>36</v>
+      </c>
+      <c r="R80">
+        <v>4</v>
+      </c>
+      <c r="S80">
+        <v>54</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>60</v>
+      </c>
+      <c r="X80">
+        <v>60</v>
       </c>
       <c r="Y80" t="s">
         <v>208</v>
@@ -7824,9 +8742,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="81" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B81" t="s">
         <v>27</v>
@@ -7838,7 +8756,7 @@
         <v>29</v>
       </c>
       <c r="E81" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F81" t="s">
         <v>50</v>
@@ -7847,10 +8765,10 @@
         <v>32</v>
       </c>
       <c r="H81" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="I81" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -7901,9 +8819,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B82" t="s">
         <v>27</v>
@@ -7915,7 +8833,7 @@
         <v>29</v>
       </c>
       <c r="E82" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F82" t="s">
         <v>54</v>
@@ -7924,10 +8842,10 @@
         <v>32</v>
       </c>
       <c r="H82" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="I82" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -7939,13 +8857,13 @@
         <v>123</v>
       </c>
       <c r="N82">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O82">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P82">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q82">
         <v>17</v>
@@ -7954,22 +8872,22 @@
         <v>0</v>
       </c>
       <c r="S82">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T82">
         <v>0</v>
       </c>
       <c r="U82">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V82">
         <v>0</v>
       </c>
       <c r="W82">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="X82">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="Y82" t="s">
         <v>208</v>
@@ -7978,9 +8896,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B83" t="s">
         <v>27</v>
@@ -7992,7 +8910,7 @@
         <v>29</v>
       </c>
       <c r="E83" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F83" t="s">
         <v>58</v>
@@ -8001,16 +8919,52 @@
         <v>32</v>
       </c>
       <c r="H83" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="I83" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="K83">
         <v>0</v>
       </c>
       <c r="L83">
         <v>0</v>
+      </c>
+      <c r="M83">
+        <v>38</v>
+      </c>
+      <c r="N83">
+        <v>50</v>
+      </c>
+      <c r="O83">
+        <v>40</v>
+      </c>
+      <c r="P83">
+        <v>34</v>
+      </c>
+      <c r="Q83">
+        <v>22</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>29</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>4</v>
+      </c>
+      <c r="V83">
+        <v>2</v>
+      </c>
+      <c r="W83">
+        <v>40</v>
+      </c>
+      <c r="X83">
+        <v>38</v>
       </c>
       <c r="Y83" t="s">
         <v>208</v>
@@ -8019,9 +8973,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="84" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B84" t="s">
         <v>27</v>
@@ -8033,7 +8987,7 @@
         <v>29</v>
       </c>
       <c r="E84" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F84" t="s">
         <v>62</v>
@@ -8042,16 +8996,52 @@
         <v>32</v>
       </c>
       <c r="H84" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="I84" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84">
         <v>0</v>
+      </c>
+      <c r="M84">
+        <v>63</v>
+      </c>
+      <c r="N84">
+        <v>49</v>
+      </c>
+      <c r="O84">
+        <v>47</v>
+      </c>
+      <c r="P84">
+        <v>14</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>36</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>3</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>47</v>
+      </c>
+      <c r="X84">
+        <v>47</v>
       </c>
       <c r="Y84" t="s">
         <v>208</v>
@@ -8060,9 +9050,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B85" t="s">
         <v>27</v>
@@ -8074,7 +9064,7 @@
         <v>29</v>
       </c>
       <c r="E85" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F85" t="s">
         <v>66</v>
@@ -8083,10 +9073,10 @@
         <v>32</v>
       </c>
       <c r="H85" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="I85" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -8137,9 +9127,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B86" t="s">
         <v>27</v>
@@ -8151,7 +9141,7 @@
         <v>29</v>
       </c>
       <c r="E86" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F86" t="s">
         <v>70</v>
@@ -8160,10 +9150,10 @@
         <v>32</v>
       </c>
       <c r="H86" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="I86" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -8214,9 +9204,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B87" t="s">
         <v>27</v>
@@ -8228,7 +9218,7 @@
         <v>29</v>
       </c>
       <c r="E87" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F87" t="s">
         <v>74</v>
@@ -8237,10 +9227,10 @@
         <v>32</v>
       </c>
       <c r="H87" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="I87" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -8291,9 +9281,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B88" t="s">
         <v>27</v>
@@ -8305,7 +9295,7 @@
         <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F88" t="s">
         <v>78</v>
@@ -8314,10 +9304,10 @@
         <v>32</v>
       </c>
       <c r="H88" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="I88" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -8368,9 +9358,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="89" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B89" t="s">
         <v>27</v>
@@ -8382,7 +9372,7 @@
         <v>29</v>
       </c>
       <c r="E89" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F89" t="s">
         <v>82</v>
@@ -8391,10 +9381,10 @@
         <v>32</v>
       </c>
       <c r="H89" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="I89" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -8445,9 +9435,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B90" t="s">
         <v>27</v>
@@ -8459,7 +9449,7 @@
         <v>29</v>
       </c>
       <c r="E90" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F90" t="s">
         <v>86</v>
@@ -8468,10 +9458,10 @@
         <v>32</v>
       </c>
       <c r="H90" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="I90" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -8522,9 +9512,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B91" t="s">
         <v>27</v>
@@ -8536,7 +9526,7 @@
         <v>29</v>
       </c>
       <c r="E91" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F91" t="s">
         <v>90</v>
@@ -8545,10 +9535,10 @@
         <v>32</v>
       </c>
       <c r="H91" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="I91" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -8599,9 +9589,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="92" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B92" t="s">
         <v>27</v>
@@ -8613,7 +9603,7 @@
         <v>29</v>
       </c>
       <c r="E92" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F92" t="s">
         <v>94</v>
@@ -8622,16 +9612,52 @@
         <v>32</v>
       </c>
       <c r="H92" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="I92" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="K92">
         <v>0</v>
       </c>
       <c r="L92">
         <v>0</v>
+      </c>
+      <c r="M92">
+        <v>51</v>
+      </c>
+      <c r="N92">
+        <v>51</v>
+      </c>
+      <c r="O92">
+        <v>38</v>
+      </c>
+      <c r="P92">
+        <v>25</v>
+      </c>
+      <c r="Q92">
+        <v>34</v>
+      </c>
+      <c r="R92">
+        <v>8</v>
+      </c>
+      <c r="S92">
+        <v>35</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>7</v>
+      </c>
+      <c r="V92">
+        <v>3</v>
+      </c>
+      <c r="W92">
+        <v>38</v>
+      </c>
+      <c r="X92">
+        <v>38</v>
       </c>
       <c r="Y92" t="s">
         <v>208</v>
@@ -8640,9 +9666,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B93" t="s">
         <v>27</v>
@@ -8654,7 +9680,7 @@
         <v>29</v>
       </c>
       <c r="E93" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F93" t="s">
         <v>31</v>
@@ -8666,7 +9692,7 @@
         <v>33</v>
       </c>
       <c r="I93" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -8711,15 +9737,15 @@
         <v>51</v>
       </c>
       <c r="Y93" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z93" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B94" t="s">
         <v>27</v>
@@ -8731,7 +9757,7 @@
         <v>29</v>
       </c>
       <c r="E94" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F94" t="s">
         <v>38</v>
@@ -8743,7 +9769,7 @@
         <v>39</v>
       </c>
       <c r="I94" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -8788,15 +9814,15 @@
         <v>40</v>
       </c>
       <c r="Y94" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z94" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B95" t="s">
         <v>27</v>
@@ -8808,7 +9834,7 @@
         <v>29</v>
       </c>
       <c r="E95" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F95" t="s">
         <v>42</v>
@@ -8820,7 +9846,7 @@
         <v>43</v>
       </c>
       <c r="I95" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -8865,15 +9891,15 @@
         <v>73</v>
       </c>
       <c r="Y95" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z95" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B96" t="s">
         <v>27</v>
@@ -8885,7 +9911,7 @@
         <v>29</v>
       </c>
       <c r="E96" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F96" t="s">
         <v>46</v>
@@ -8897,7 +9923,7 @@
         <v>254</v>
       </c>
       <c r="I96" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -8942,15 +9968,15 @@
         <v>27</v>
       </c>
       <c r="Y96" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z96" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="97" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B97" t="s">
         <v>27</v>
@@ -8962,7 +9988,7 @@
         <v>29</v>
       </c>
       <c r="E97" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F97" t="s">
         <v>50</v>
@@ -8971,10 +9997,10 @@
         <v>32</v>
       </c>
       <c r="H97" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="I97" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -8982,16 +10008,52 @@
       <c r="L97">
         <v>0</v>
       </c>
+      <c r="M97">
+        <v>66</v>
+      </c>
+      <c r="N97">
+        <v>67</v>
+      </c>
+      <c r="O97">
+        <v>52</v>
+      </c>
+      <c r="P97">
+        <v>32</v>
+      </c>
+      <c r="Q97">
+        <v>13</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>46</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>50</v>
+      </c>
+      <c r="X97">
+        <v>50</v>
+      </c>
       <c r="Y97" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z97" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="98" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B98" t="s">
         <v>27</v>
@@ -9003,7 +10065,7 @@
         <v>29</v>
       </c>
       <c r="E98" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F98" t="s">
         <v>54</v>
@@ -9012,10 +10074,10 @@
         <v>32</v>
       </c>
       <c r="H98" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="I98" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -9060,16 +10122,16 @@
         <v>45</v>
       </c>
       <c r="Y98" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>349</v>
       </c>
-      <c r="Z98" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="99" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>363</v>
-      </c>
       <c r="B99" t="s">
         <v>27</v>
       </c>
@@ -9080,7 +10142,7 @@
         <v>29</v>
       </c>
       <c r="E99" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F99" t="s">
         <v>58</v>
@@ -9089,10 +10151,10 @@
         <v>32</v>
       </c>
       <c r="H99" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="I99" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -9137,15 +10199,15 @@
         <v>40</v>
       </c>
       <c r="Y99" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z99" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="100" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B100" t="s">
         <v>27</v>
@@ -9157,7 +10219,7 @@
         <v>29</v>
       </c>
       <c r="E100" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F100" t="s">
         <v>62</v>
@@ -9166,10 +10228,10 @@
         <v>32</v>
       </c>
       <c r="H100" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="I100" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -9214,15 +10276,15 @@
         <v>32</v>
       </c>
       <c r="Y100" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z100" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="101" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="B101" t="s">
         <v>27</v>
@@ -9234,7 +10296,7 @@
         <v>29</v>
       </c>
       <c r="E101" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F101" t="s">
         <v>66</v>
@@ -9243,10 +10305,10 @@
         <v>32</v>
       </c>
       <c r="H101" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="I101" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -9291,15 +10353,15 @@
         <v>50</v>
       </c>
       <c r="Y101" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z101" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="102" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B102" t="s">
         <v>27</v>
@@ -9311,7 +10373,7 @@
         <v>29</v>
       </c>
       <c r="E102" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F102" t="s">
         <v>70</v>
@@ -9320,10 +10382,10 @@
         <v>32</v>
       </c>
       <c r="H102" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="I102" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -9368,15 +10430,15 @@
         <v>45</v>
       </c>
       <c r="Y102" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z102" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="103" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B103" t="s">
         <v>27</v>
@@ -9388,7 +10450,7 @@
         <v>29</v>
       </c>
       <c r="E103" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F103" t="s">
         <v>74</v>
@@ -9397,10 +10459,10 @@
         <v>32</v>
       </c>
       <c r="H103" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="I103" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -9445,15 +10507,15 @@
         <v>25</v>
       </c>
       <c r="Y103" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z103" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="104" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="B104" t="s">
         <v>27</v>
@@ -9465,7 +10527,7 @@
         <v>29</v>
       </c>
       <c r="E104" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F104" t="s">
         <v>78</v>
@@ -9474,10 +10536,10 @@
         <v>32</v>
       </c>
       <c r="H104" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="I104" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -9522,15 +10584,15 @@
         <v>35</v>
       </c>
       <c r="Y104" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z104" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="105" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B105" t="s">
         <v>27</v>
@@ -9542,7 +10604,7 @@
         <v>29</v>
       </c>
       <c r="E105" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F105" t="s">
         <v>82</v>
@@ -9551,10 +10613,10 @@
         <v>32</v>
       </c>
       <c r="H105" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="I105" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -9562,16 +10624,52 @@
       <c r="L105">
         <v>0</v>
       </c>
+      <c r="M105">
+        <v>31</v>
+      </c>
+      <c r="N105">
+        <v>30</v>
+      </c>
+      <c r="O105">
+        <v>28</v>
+      </c>
+      <c r="P105">
+        <v>20</v>
+      </c>
+      <c r="Q105">
+        <v>15</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>23</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>5</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>29</v>
+      </c>
+      <c r="X105">
+        <v>28</v>
+      </c>
       <c r="Y105" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z105" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="106" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B106" t="s">
         <v>27</v>
@@ -9583,7 +10681,7 @@
         <v>29</v>
       </c>
       <c r="E106" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F106" t="s">
         <v>86</v>
@@ -9592,10 +10690,10 @@
         <v>32</v>
       </c>
       <c r="H106" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="I106" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -9640,15 +10738,15 @@
         <v>33</v>
       </c>
       <c r="Y106" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z106" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="107" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B107" t="s">
         <v>27</v>
@@ -9660,7 +10758,7 @@
         <v>29</v>
       </c>
       <c r="E107" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F107" t="s">
         <v>90</v>
@@ -9669,10 +10767,10 @@
         <v>32</v>
       </c>
       <c r="H107" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="I107" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -9717,15 +10815,15 @@
         <v>57</v>
       </c>
       <c r="Y107" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z107" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="108" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B108" t="s">
         <v>27</v>
@@ -9737,7 +10835,7 @@
         <v>29</v>
       </c>
       <c r="E108" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F108" t="s">
         <v>94</v>
@@ -9746,10 +10844,10 @@
         <v>32</v>
       </c>
       <c r="H108" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="I108" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -9794,15 +10892,15 @@
         <v>54</v>
       </c>
       <c r="Y108" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z108" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="109" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B109" t="s">
         <v>27</v>
@@ -9814,7 +10912,7 @@
         <v>29</v>
       </c>
       <c r="E109" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F109" t="s">
         <v>98</v>
@@ -9823,10 +10921,10 @@
         <v>32</v>
       </c>
       <c r="H109" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="I109" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -9871,15 +10969,15 @@
         <v>41</v>
       </c>
       <c r="Y109" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z109" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="110" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B110" t="s">
         <v>27</v>
@@ -9891,7 +10989,7 @@
         <v>29</v>
       </c>
       <c r="E110" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F110" t="s">
         <v>102</v>
@@ -9900,10 +10998,10 @@
         <v>32</v>
       </c>
       <c r="H110" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="I110" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -9911,16 +11009,52 @@
       <c r="L110">
         <v>0</v>
       </c>
+      <c r="M110">
+        <v>82</v>
+      </c>
+      <c r="N110">
+        <v>84</v>
+      </c>
+      <c r="O110">
+        <v>67</v>
+      </c>
+      <c r="P110">
+        <v>44</v>
+      </c>
+      <c r="Q110">
+        <v>26</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>43</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>6</v>
+      </c>
+      <c r="V110">
+        <v>1</v>
+      </c>
+      <c r="W110">
+        <v>58</v>
+      </c>
+      <c r="X110">
+        <v>58</v>
+      </c>
       <c r="Y110" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z110" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="111" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B111" t="s">
         <v>27</v>
@@ -9932,7 +11066,7 @@
         <v>29</v>
       </c>
       <c r="E111" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F111" t="s">
         <v>31</v>
@@ -9944,7 +11078,7 @@
         <v>33</v>
       </c>
       <c r="I111" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -9989,15 +11123,15 @@
         <v>31</v>
       </c>
       <c r="Y111" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z111" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="112" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B112" t="s">
         <v>27</v>
@@ -10009,7 +11143,7 @@
         <v>29</v>
       </c>
       <c r="E112" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F112" t="s">
         <v>38</v>
@@ -10021,7 +11155,7 @@
         <v>39</v>
       </c>
       <c r="I112" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -10066,15 +11200,15 @@
         <v>9</v>
       </c>
       <c r="Y112" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z112" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="113" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B113" t="s">
         <v>27</v>
@@ -10086,7 +11220,7 @@
         <v>29</v>
       </c>
       <c r="E113" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F113" t="s">
         <v>42</v>
@@ -10098,7 +11232,7 @@
         <v>43</v>
       </c>
       <c r="I113" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -10143,15 +11277,15 @@
         <v>14</v>
       </c>
       <c r="Y113" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z113" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="114" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="B114" t="s">
         <v>27</v>
@@ -10163,7 +11297,7 @@
         <v>29</v>
       </c>
       <c r="E114" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F114" t="s">
         <v>46</v>
@@ -10175,7 +11309,7 @@
         <v>254</v>
       </c>
       <c r="I114" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -10220,15 +11354,15 @@
         <v>18</v>
       </c>
       <c r="Y114" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z114" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="115" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B115" t="s">
         <v>27</v>
@@ -10240,7 +11374,7 @@
         <v>29</v>
       </c>
       <c r="E115" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F115" t="s">
         <v>50</v>
@@ -10249,10 +11383,10 @@
         <v>32</v>
       </c>
       <c r="H115" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="I115" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -10297,15 +11431,15 @@
         <v>49</v>
       </c>
       <c r="Y115" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z115" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="116" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B116" t="s">
         <v>27</v>
@@ -10317,7 +11451,7 @@
         <v>29</v>
       </c>
       <c r="E116" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F116" t="s">
         <v>54</v>
@@ -10326,10 +11460,10 @@
         <v>32</v>
       </c>
       <c r="H116" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="I116" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -10337,16 +11471,52 @@
       <c r="L116">
         <v>0</v>
       </c>
+      <c r="M116">
+        <v>46</v>
+      </c>
+      <c r="N116">
+        <v>43</v>
+      </c>
+      <c r="O116">
+        <v>31</v>
+      </c>
+      <c r="P116">
+        <v>21</v>
+      </c>
+      <c r="Q116">
+        <v>14</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>16</v>
+      </c>
+      <c r="T116">
+        <v>1</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>27</v>
+      </c>
+      <c r="X116">
+        <v>26</v>
+      </c>
       <c r="Y116" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z116" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="117" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="B117" t="s">
         <v>27</v>
@@ -10358,7 +11528,7 @@
         <v>29</v>
       </c>
       <c r="E117" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F117" t="s">
         <v>58</v>
@@ -10367,10 +11537,10 @@
         <v>32</v>
       </c>
       <c r="H117" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="I117" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -10378,16 +11548,52 @@
       <c r="L117">
         <v>0</v>
       </c>
+      <c r="M117">
+        <v>32</v>
+      </c>
+      <c r="N117">
+        <v>31</v>
+      </c>
+      <c r="O117">
+        <v>24</v>
+      </c>
+      <c r="P117">
+        <v>12</v>
+      </c>
+      <c r="Q117">
+        <v>4</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>19</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <v>0</v>
+      </c>
+      <c r="W117">
+        <v>23</v>
+      </c>
+      <c r="X117">
+        <v>22</v>
+      </c>
       <c r="Y117" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z117" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="118" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="B118" t="s">
         <v>27</v>
@@ -10399,7 +11605,7 @@
         <v>29</v>
       </c>
       <c r="E118" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F118" t="s">
         <v>62</v>
@@ -10408,10 +11614,10 @@
         <v>32</v>
       </c>
       <c r="H118" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="I118" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -10419,16 +11625,52 @@
       <c r="L118">
         <v>0</v>
       </c>
+      <c r="M118">
+        <v>46</v>
+      </c>
+      <c r="N118">
+        <v>45</v>
+      </c>
+      <c r="O118">
+        <v>28</v>
+      </c>
+      <c r="P118">
+        <v>20</v>
+      </c>
+      <c r="Q118">
+        <v>16</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>20</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>1</v>
+      </c>
+      <c r="V118">
+        <v>1</v>
+      </c>
+      <c r="W118">
+        <v>27</v>
+      </c>
+      <c r="X118">
+        <v>25</v>
+      </c>
       <c r="Y118" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z118" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="119" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="B119" t="s">
         <v>27</v>
@@ -10440,7 +11682,7 @@
         <v>29</v>
       </c>
       <c r="E119" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F119" t="s">
         <v>66</v>
@@ -10449,10 +11691,10 @@
         <v>32</v>
       </c>
       <c r="H119" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I119" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -10494,18 +11736,18 @@
         <v>37</v>
       </c>
       <c r="X119">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Y119" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z119" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="120" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="B120" t="s">
         <v>27</v>
@@ -10517,7 +11759,7 @@
         <v>29</v>
       </c>
       <c r="E120" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F120" t="s">
         <v>70</v>
@@ -10526,10 +11768,10 @@
         <v>32</v>
       </c>
       <c r="H120" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="I120" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -10574,15 +11816,15 @@
         <v>21</v>
       </c>
       <c r="Y120" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z120" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="121" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B121" t="s">
         <v>27</v>
@@ -10594,7 +11836,7 @@
         <v>29</v>
       </c>
       <c r="E121" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F121" t="s">
         <v>74</v>
@@ -10603,10 +11845,10 @@
         <v>32</v>
       </c>
       <c r="H121" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="I121" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -10651,15 +11893,15 @@
         <v>63</v>
       </c>
       <c r="Y121" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z121" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="122" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="B122" t="s">
         <v>27</v>
@@ -10671,7 +11913,7 @@
         <v>29</v>
       </c>
       <c r="E122" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F122" t="s">
         <v>78</v>
@@ -10680,10 +11922,10 @@
         <v>32</v>
       </c>
       <c r="H122" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="I122" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -10691,16 +11933,52 @@
       <c r="L122">
         <v>0</v>
       </c>
+      <c r="M122">
+        <v>73</v>
+      </c>
+      <c r="N122">
+        <v>71</v>
+      </c>
+      <c r="O122">
+        <v>55</v>
+      </c>
+      <c r="P122">
+        <v>51</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>42</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>1</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>62</v>
+      </c>
+      <c r="X122">
+        <v>55</v>
+      </c>
       <c r="Y122" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z122" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="123" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B123" t="s">
         <v>27</v>
@@ -10712,7 +11990,7 @@
         <v>29</v>
       </c>
       <c r="E123" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F123" t="s">
         <v>82</v>
@@ -10721,10 +11999,10 @@
         <v>32</v>
       </c>
       <c r="H123" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="I123" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -10732,16 +12010,52 @@
       <c r="L123">
         <v>0</v>
       </c>
+      <c r="M123">
+        <v>85</v>
+      </c>
+      <c r="N123">
+        <v>79</v>
+      </c>
+      <c r="O123">
+        <v>56</v>
+      </c>
+      <c r="P123">
+        <v>47</v>
+      </c>
+      <c r="Q123">
+        <v>36</v>
+      </c>
+      <c r="R123">
+        <v>24</v>
+      </c>
+      <c r="S123">
+        <v>44</v>
+      </c>
+      <c r="T123">
+        <v>1</v>
+      </c>
+      <c r="U123">
+        <v>3</v>
+      </c>
+      <c r="V123">
+        <v>3</v>
+      </c>
+      <c r="W123">
+        <v>51</v>
+      </c>
+      <c r="X123">
+        <v>50</v>
+      </c>
       <c r="Y123" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z123" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="124" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B124" t="s">
         <v>27</v>
@@ -10753,7 +12067,7 @@
         <v>29</v>
       </c>
       <c r="E124" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F124" t="s">
         <v>86</v>
@@ -10762,10 +12076,10 @@
         <v>32</v>
       </c>
       <c r="H124" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="I124" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -10810,15 +12124,15 @@
         <v>53</v>
       </c>
       <c r="Y124" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z124" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="125" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="B125" t="s">
         <v>27</v>
@@ -10830,7 +12144,7 @@
         <v>29</v>
       </c>
       <c r="E125" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F125" t="s">
         <v>90</v>
@@ -10839,10 +12153,10 @@
         <v>32</v>
       </c>
       <c r="H125" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="I125" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -10887,15 +12201,15 @@
         <v>41</v>
       </c>
       <c r="Y125" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z125" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="126" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="B126" t="s">
         <v>27</v>
@@ -10907,7 +12221,7 @@
         <v>29</v>
       </c>
       <c r="E126" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F126" t="s">
         <v>94</v>
@@ -10916,10 +12230,10 @@
         <v>32</v>
       </c>
       <c r="H126" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="I126" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="K126">
         <v>0</v>
@@ -10964,15 +12278,15 @@
         <v>21</v>
       </c>
       <c r="Y126" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z126" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="127" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="B127" t="s">
         <v>27</v>
@@ -10984,7 +12298,7 @@
         <v>29</v>
       </c>
       <c r="E127" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F127" t="s">
         <v>31</v>
@@ -10993,10 +12307,10 @@
         <v>32</v>
       </c>
       <c r="H127" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="I127" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -11041,15 +12355,15 @@
         <v>17</v>
       </c>
       <c r="Y127" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z127" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="128" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="B128" t="s">
         <v>27</v>
@@ -11061,7 +12375,7 @@
         <v>29</v>
       </c>
       <c r="E128" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F128" t="s">
         <v>38</v>
@@ -11070,10 +12384,10 @@
         <v>32</v>
       </c>
       <c r="H128" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="I128" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -11118,15 +12432,15 @@
         <v>36</v>
       </c>
       <c r="Y128" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z128" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="129" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="B129" t="s">
         <v>27</v>
@@ -11138,7 +12452,7 @@
         <v>29</v>
       </c>
       <c r="E129" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F129" t="s">
         <v>42</v>
@@ -11147,10 +12461,10 @@
         <v>32</v>
       </c>
       <c r="H129" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="I129" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -11195,15 +12509,15 @@
         <v>14</v>
       </c>
       <c r="Y129" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z129" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="130" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="B130" t="s">
         <v>27</v>
@@ -11215,7 +12529,7 @@
         <v>29</v>
       </c>
       <c r="E130" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F130" t="s">
         <v>46</v>
@@ -11224,10 +12538,10 @@
         <v>32</v>
       </c>
       <c r="H130" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="I130" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -11272,15 +12586,15 @@
         <v>25</v>
       </c>
       <c r="Y130" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z130" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="131" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="B131" t="s">
         <v>27</v>
@@ -11292,7 +12606,7 @@
         <v>29</v>
       </c>
       <c r="E131" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F131" t="s">
         <v>50</v>
@@ -11301,10 +12615,10 @@
         <v>32</v>
       </c>
       <c r="H131" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="I131" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="K131">
         <v>0</v>
@@ -11349,15 +12663,15 @@
         <v>23</v>
       </c>
       <c r="Y131" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z131" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="132" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="B132" t="s">
         <v>27</v>
@@ -11369,7 +12683,7 @@
         <v>29</v>
       </c>
       <c r="E132" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F132" t="s">
         <v>54</v>
@@ -11378,10 +12692,10 @@
         <v>32</v>
       </c>
       <c r="H132" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="I132" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -11426,15 +12740,15 @@
         <v>17</v>
       </c>
       <c r="Y132" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z132" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="133" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="B133" t="s">
         <v>27</v>
@@ -11446,7 +12760,7 @@
         <v>29</v>
       </c>
       <c r="E133" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F133" t="s">
         <v>58</v>
@@ -11458,7 +12772,7 @@
         <v>47</v>
       </c>
       <c r="I133" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -11503,15 +12817,15 @@
         <v>17</v>
       </c>
       <c r="Y133" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z133" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="134" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="B134" t="s">
         <v>27</v>
@@ -11523,7 +12837,7 @@
         <v>29</v>
       </c>
       <c r="E134" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F134" t="s">
         <v>62</v>
@@ -11535,7 +12849,7 @@
         <v>51</v>
       </c>
       <c r="I134" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -11580,15 +12894,15 @@
         <v>12</v>
       </c>
       <c r="Y134" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z134" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="135" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B135" t="s">
         <v>27</v>
@@ -11600,7 +12914,7 @@
         <v>29</v>
       </c>
       <c r="E135" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F135" t="s">
         <v>66</v>
@@ -11620,16 +12934,52 @@
       <c r="L135">
         <v>0</v>
       </c>
+      <c r="M135">
+        <v>49</v>
+      </c>
+      <c r="N135">
+        <v>50</v>
+      </c>
+      <c r="O135">
+        <v>34</v>
+      </c>
+      <c r="P135">
+        <v>16</v>
+      </c>
+      <c r="Q135">
+        <v>4</v>
+      </c>
+      <c r="R135">
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <v>10</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>0</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <v>18</v>
+      </c>
+      <c r="X135">
+        <v>18</v>
+      </c>
       <c r="Y135" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z135" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="136" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="B136" t="s">
         <v>27</v>
@@ -11641,7 +12991,7 @@
         <v>29</v>
       </c>
       <c r="E136" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F136" t="s">
         <v>70</v>
@@ -11650,10 +13000,10 @@
         <v>32</v>
       </c>
       <c r="H136" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="I136" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -11698,15 +13048,15 @@
         <v>14</v>
       </c>
       <c r="Y136" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z136" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="137" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="B137" t="s">
         <v>27</v>
@@ -11718,7 +13068,7 @@
         <v>29</v>
       </c>
       <c r="E137" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F137" t="s">
         <v>74</v>
@@ -11727,10 +13077,10 @@
         <v>32</v>
       </c>
       <c r="H137" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="I137" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="K137">
         <v>0</v>
@@ -11775,15 +13125,15 @@
         <v>21</v>
       </c>
       <c r="Y137" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z137" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="138" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="B138" t="s">
         <v>27</v>
@@ -11795,7 +13145,7 @@
         <v>29</v>
       </c>
       <c r="E138" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F138" t="s">
         <v>78</v>
@@ -11804,10 +13154,10 @@
         <v>32</v>
       </c>
       <c r="H138" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="I138" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="K138">
         <v>0</v>
@@ -11852,15 +13202,15 @@
         <v>7</v>
       </c>
       <c r="Y138" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z138" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="139" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="B139" t="s">
         <v>27</v>
@@ -11872,7 +13222,7 @@
         <v>29</v>
       </c>
       <c r="E139" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F139" t="s">
         <v>82</v>
@@ -11881,10 +13231,10 @@
         <v>32</v>
       </c>
       <c r="H139" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="I139" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="K139">
         <v>0</v>
@@ -11892,16 +13242,52 @@
       <c r="L139">
         <v>0</v>
       </c>
+      <c r="M139">
+        <v>27</v>
+      </c>
+      <c r="N139">
+        <v>25</v>
+      </c>
+      <c r="O139">
+        <v>17</v>
+      </c>
+      <c r="P139">
+        <v>1</v>
+      </c>
+      <c r="Q139">
+        <v>9</v>
+      </c>
+      <c r="R139">
+        <v>0</v>
+      </c>
+      <c r="S139">
+        <v>5</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>2</v>
+      </c>
+      <c r="V139">
+        <v>0</v>
+      </c>
+      <c r="W139">
+        <v>10</v>
+      </c>
+      <c r="X139">
+        <v>9</v>
+      </c>
       <c r="Y139" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z139" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="140" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B140" t="s">
         <v>27</v>
@@ -11913,7 +13299,7 @@
         <v>29</v>
       </c>
       <c r="E140" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F140" t="s">
         <v>86</v>
@@ -11922,7 +13308,7 @@
         <v>32</v>
       </c>
       <c r="H140" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="I140" t="s">
         <v>201</v>
@@ -11933,16 +13319,52 @@
       <c r="L140">
         <v>0</v>
       </c>
+      <c r="M140">
+        <v>43</v>
+      </c>
+      <c r="N140">
+        <v>41</v>
+      </c>
+      <c r="O140">
+        <v>27</v>
+      </c>
+      <c r="P140">
+        <v>3</v>
+      </c>
+      <c r="Q140">
+        <v>8</v>
+      </c>
+      <c r="R140">
+        <v>0</v>
+      </c>
+      <c r="S140">
+        <v>9</v>
+      </c>
+      <c r="T140">
+        <v>0</v>
+      </c>
+      <c r="U140">
+        <v>0</v>
+      </c>
+      <c r="V140">
+        <v>0</v>
+      </c>
+      <c r="W140">
+        <v>14</v>
+      </c>
+      <c r="X140">
+        <v>14</v>
+      </c>
       <c r="Y140" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z140" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="141" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B141" t="s">
         <v>27</v>
@@ -11954,7 +13376,7 @@
         <v>29</v>
       </c>
       <c r="E141" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F141" t="s">
         <v>90</v>
@@ -11963,10 +13385,10 @@
         <v>32</v>
       </c>
       <c r="H141" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="I141" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -11974,16 +13396,52 @@
       <c r="L141">
         <v>0</v>
       </c>
+      <c r="M141">
+        <v>79</v>
+      </c>
+      <c r="N141">
+        <v>76</v>
+      </c>
+      <c r="O141">
+        <v>55</v>
+      </c>
+      <c r="P141">
+        <v>9</v>
+      </c>
+      <c r="Q141">
+        <v>1</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>11</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+      <c r="V141">
+        <v>0</v>
+      </c>
+      <c r="W141">
+        <v>13</v>
+      </c>
+      <c r="X141">
+        <v>13</v>
+      </c>
       <c r="Y141" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z141" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="142" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B142" t="s">
         <v>27</v>
@@ -11995,7 +13453,7 @@
         <v>29</v>
       </c>
       <c r="E142" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F142" t="s">
         <v>94</v>
@@ -12004,10 +13462,10 @@
         <v>32</v>
       </c>
       <c r="H142" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="I142" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="K142">
         <v>0</v>
@@ -12015,16 +13473,52 @@
       <c r="L142">
         <v>0</v>
       </c>
+      <c r="M142">
+        <v>32</v>
+      </c>
+      <c r="N142">
+        <v>31</v>
+      </c>
+      <c r="O142">
+        <v>23</v>
+      </c>
+      <c r="P142">
+        <v>4</v>
+      </c>
+      <c r="Q142">
+        <v>7</v>
+      </c>
+      <c r="R142">
+        <v>0</v>
+      </c>
+      <c r="S142">
+        <v>3</v>
+      </c>
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>2</v>
+      </c>
+      <c r="V142">
+        <v>0</v>
+      </c>
+      <c r="W142">
+        <v>8</v>
+      </c>
+      <c r="X142">
+        <v>8</v>
+      </c>
       <c r="Y142" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z142" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="143" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="B143" t="s">
         <v>27</v>
@@ -12036,7 +13530,7 @@
         <v>29</v>
       </c>
       <c r="E143" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F143" t="s">
         <v>98</v>
@@ -12045,10 +13539,10 @@
         <v>32</v>
       </c>
       <c r="H143" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="I143" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -12056,16 +13550,52 @@
       <c r="L143">
         <v>0</v>
       </c>
+      <c r="M143">
+        <v>52</v>
+      </c>
+      <c r="N143">
+        <v>50</v>
+      </c>
+      <c r="O143">
+        <v>40</v>
+      </c>
+      <c r="P143">
+        <v>6</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>1</v>
+      </c>
+      <c r="S143">
+        <v>3</v>
+      </c>
+      <c r="T143">
+        <v>0</v>
+      </c>
+      <c r="U143">
+        <v>2</v>
+      </c>
+      <c r="V143">
+        <v>0</v>
+      </c>
+      <c r="W143">
+        <v>8</v>
+      </c>
+      <c r="X143">
+        <v>8</v>
+      </c>
       <c r="Y143" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z143" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="144" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="B144" t="s">
         <v>27</v>
@@ -12077,7 +13607,7 @@
         <v>29</v>
       </c>
       <c r="E144" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F144" t="s">
         <v>102</v>
@@ -12086,10 +13616,10 @@
         <v>32</v>
       </c>
       <c r="H144" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="I144" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -12097,16 +13627,52 @@
       <c r="L144">
         <v>0</v>
       </c>
+      <c r="M144">
+        <v>37</v>
+      </c>
+      <c r="N144">
+        <v>36</v>
+      </c>
+      <c r="O144">
+        <v>28</v>
+      </c>
+      <c r="P144">
+        <v>11</v>
+      </c>
+      <c r="Q144">
+        <v>13</v>
+      </c>
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>1</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>3</v>
+      </c>
+      <c r="V144">
+        <v>0</v>
+      </c>
+      <c r="W144">
+        <v>20</v>
+      </c>
+      <c r="X144">
+        <v>20</v>
+      </c>
       <c r="Y144" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Z144" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="145" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="B145" t="s">
         <v>27</v>
@@ -12118,7 +13684,7 @@
         <v>29</v>
       </c>
       <c r="E145" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F145" t="s">
         <v>31</v>
@@ -12127,10 +13693,10 @@
         <v>32</v>
       </c>
       <c r="H145" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="I145" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -12175,15 +13741,15 @@
         <v>27</v>
       </c>
       <c r="Y145" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Z145" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="146" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="B146" t="s">
         <v>27</v>
@@ -12195,7 +13761,7 @@
         <v>29</v>
       </c>
       <c r="E146" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F146" t="s">
         <v>38</v>
@@ -12204,13 +13770,13 @@
         <v>32</v>
       </c>
       <c r="H146" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="I146" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="K146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L146">
         <v>0</v>
@@ -12252,15 +13818,15 @@
         <v>37</v>
       </c>
       <c r="Y146" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Z146" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="147" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="B147" t="s">
         <v>27</v>
@@ -12272,7 +13838,7 @@
         <v>29</v>
       </c>
       <c r="E147" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F147" t="s">
         <v>42</v>
@@ -12281,10 +13847,10 @@
         <v>32</v>
       </c>
       <c r="H147" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="I147" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="K147">
         <v>0</v>
@@ -12329,15 +13895,15 @@
         <v>42</v>
       </c>
       <c r="Y147" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Z147" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="148" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="B148" t="s">
         <v>27</v>
@@ -12349,7 +13915,7 @@
         <v>29</v>
       </c>
       <c r="E148" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F148" t="s">
         <v>46</v>
@@ -12358,10 +13924,10 @@
         <v>32</v>
       </c>
       <c r="H148" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="I148" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="K148">
         <v>0</v>
@@ -12369,16 +13935,52 @@
       <c r="L148">
         <v>0</v>
       </c>
+      <c r="M148">
+        <v>68</v>
+      </c>
+      <c r="N148">
+        <v>71</v>
+      </c>
+      <c r="O148">
+        <v>66</v>
+      </c>
+      <c r="P148">
+        <v>33</v>
+      </c>
+      <c r="Q148">
+        <v>7</v>
+      </c>
+      <c r="R148">
+        <v>0</v>
+      </c>
+      <c r="S148">
+        <v>42</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <v>1</v>
+      </c>
+      <c r="V148">
+        <v>3</v>
+      </c>
+      <c r="W148">
+        <v>53</v>
+      </c>
+      <c r="X148">
+        <v>53</v>
+      </c>
       <c r="Y148" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Z148" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="149" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="B149" t="s">
         <v>27</v>
@@ -12390,7 +13992,7 @@
         <v>29</v>
       </c>
       <c r="E149" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F149" t="s">
         <v>50</v>
@@ -12399,10 +14001,10 @@
         <v>32</v>
       </c>
       <c r="H149" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="I149" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="K149">
         <v>0</v>
@@ -12410,17 +14012,53 @@
       <c r="L149">
         <v>0</v>
       </c>
+      <c r="M149">
+        <v>40</v>
+      </c>
+      <c r="N149">
+        <v>42</v>
+      </c>
+      <c r="O149">
+        <v>40</v>
+      </c>
+      <c r="P149">
+        <v>20</v>
+      </c>
+      <c r="Q149">
+        <v>9</v>
+      </c>
+      <c r="R149">
+        <v>0</v>
+      </c>
+      <c r="S149">
+        <v>22</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>1</v>
+      </c>
+      <c r="V149">
+        <v>0</v>
+      </c>
+      <c r="W149">
+        <v>30</v>
+      </c>
+      <c r="X149">
+        <v>30</v>
+      </c>
       <c r="Y149" t="s">
+        <v>484</v>
+      </c>
+      <c r="Z149" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>498</v>
       </c>
-      <c r="Z149" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="150" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>512</v>
-      </c>
       <c r="B150" t="s">
         <v>27</v>
       </c>
@@ -12431,7 +14069,7 @@
         <v>29</v>
       </c>
       <c r="E150" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F150" t="s">
         <v>54</v>
@@ -12440,10 +14078,10 @@
         <v>32</v>
       </c>
       <c r="H150" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="I150" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="K150">
         <v>0</v>
@@ -12458,7 +14096,7 @@
         <v>55</v>
       </c>
       <c r="O150">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P150">
         <v>21</v>
@@ -12488,15 +14126,15 @@
         <v>37</v>
       </c>
       <c r="Y150" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Z150" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="151" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="B151" t="s">
         <v>27</v>
@@ -12508,7 +14146,7 @@
         <v>29</v>
       </c>
       <c r="E151" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F151" t="s">
         <v>58</v>
@@ -12517,10 +14155,10 @@
         <v>32</v>
       </c>
       <c r="H151" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="I151" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -12565,15 +14203,15 @@
         <v>36</v>
       </c>
       <c r="Y151" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Z151" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="152" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="B152" t="s">
         <v>27</v>
@@ -12585,7 +14223,7 @@
         <v>29</v>
       </c>
       <c r="E152" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F152" t="s">
         <v>62</v>
@@ -12594,10 +14232,10 @@
         <v>32</v>
       </c>
       <c r="H152" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="I152" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="K152">
         <v>0</v>
@@ -12605,16 +14243,52 @@
       <c r="L152">
         <v>0</v>
       </c>
+      <c r="M152">
+        <v>67</v>
+      </c>
+      <c r="N152">
+        <v>64</v>
+      </c>
+      <c r="O152">
+        <v>51</v>
+      </c>
+      <c r="P152">
+        <v>27</v>
+      </c>
+      <c r="Q152">
+        <v>2</v>
+      </c>
+      <c r="R152">
+        <v>0</v>
+      </c>
+      <c r="S152">
+        <v>30</v>
+      </c>
+      <c r="T152">
+        <v>0</v>
+      </c>
+      <c r="U152">
+        <v>2</v>
+      </c>
+      <c r="V152">
+        <v>0</v>
+      </c>
+      <c r="W152">
+        <v>48</v>
+      </c>
+      <c r="X152">
+        <v>48</v>
+      </c>
       <c r="Y152" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Z152" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="153" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="B153" t="s">
         <v>27</v>
@@ -12626,7 +14300,7 @@
         <v>29</v>
       </c>
       <c r="E153" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F153" t="s">
         <v>66</v>
@@ -12635,10 +14309,10 @@
         <v>32</v>
       </c>
       <c r="H153" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="I153" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="K153">
         <v>0</v>
@@ -12646,16 +14320,52 @@
       <c r="L153">
         <v>0</v>
       </c>
+      <c r="M153">
+        <v>48</v>
+      </c>
+      <c r="N153">
+        <v>45</v>
+      </c>
+      <c r="O153">
+        <v>39</v>
+      </c>
+      <c r="P153">
+        <v>25</v>
+      </c>
+      <c r="Q153">
+        <v>4</v>
+      </c>
+      <c r="R153">
+        <v>0</v>
+      </c>
+      <c r="S153">
+        <v>32</v>
+      </c>
+      <c r="T153">
+        <v>0</v>
+      </c>
+      <c r="U153">
+        <v>0</v>
+      </c>
+      <c r="V153">
+        <v>4</v>
+      </c>
+      <c r="W153">
+        <v>39</v>
+      </c>
+      <c r="X153">
+        <v>39</v>
+      </c>
       <c r="Y153" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Z153" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="154" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="B154" t="s">
         <v>27</v>
@@ -12667,7 +14377,7 @@
         <v>29</v>
       </c>
       <c r="E154" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F154" t="s">
         <v>70</v>
@@ -12676,10 +14386,10 @@
         <v>32</v>
       </c>
       <c r="H154" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="I154" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="K154">
         <v>0</v>
@@ -12694,7 +14404,7 @@
         <v>48</v>
       </c>
       <c r="O154">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P154">
         <v>25</v>
@@ -12724,15 +14434,15 @@
         <v>29</v>
       </c>
       <c r="Y154" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Z154" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="155" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="B155" t="s">
         <v>27</v>
@@ -12744,7 +14454,7 @@
         <v>29</v>
       </c>
       <c r="E155" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F155" t="s">
         <v>74</v>
@@ -12753,27 +14463,63 @@
         <v>32</v>
       </c>
       <c r="H155" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="I155" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="K155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L155">
         <v>0</v>
       </c>
+      <c r="M155">
+        <v>83</v>
+      </c>
+      <c r="N155">
+        <v>84</v>
+      </c>
+      <c r="O155">
+        <v>76</v>
+      </c>
+      <c r="P155">
+        <v>55</v>
+      </c>
+      <c r="Q155">
+        <v>55</v>
+      </c>
+      <c r="R155">
+        <v>2</v>
+      </c>
+      <c r="S155">
+        <v>62</v>
+      </c>
+      <c r="T155">
+        <v>0</v>
+      </c>
+      <c r="U155">
+        <v>34</v>
+      </c>
+      <c r="V155">
+        <v>3</v>
+      </c>
+      <c r="W155">
+        <v>70</v>
+      </c>
+      <c r="X155">
+        <v>70</v>
+      </c>
       <c r="Y155" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Z155" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="156" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B156" t="s">
         <v>27</v>
@@ -12785,7 +14531,7 @@
         <v>29</v>
       </c>
       <c r="E156" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F156" t="s">
         <v>78</v>
@@ -12794,10 +14540,10 @@
         <v>32</v>
       </c>
       <c r="H156" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="I156" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="K156">
         <v>0</v>
@@ -12830,10 +14576,10 @@
         <v>1</v>
       </c>
       <c r="U156">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V156">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W156">
         <v>49</v>
@@ -12842,15 +14588,15 @@
         <v>49</v>
       </c>
       <c r="Y156" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Z156" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="157" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="B157" t="s">
         <v>27</v>
@@ -12862,7 +14608,7 @@
         <v>29</v>
       </c>
       <c r="E157" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F157" t="s">
         <v>82</v>
@@ -12871,10 +14617,10 @@
         <v>32</v>
       </c>
       <c r="H157" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="I157" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="K157">
         <v>0</v>
@@ -12919,15 +14665,15 @@
         <v>62</v>
       </c>
       <c r="Y157" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Z157" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="158" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="B158" t="s">
         <v>27</v>
@@ -12939,7 +14685,7 @@
         <v>29</v>
       </c>
       <c r="E158" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F158" t="s">
         <v>86</v>
@@ -12948,10 +14694,10 @@
         <v>32</v>
       </c>
       <c r="H158" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="I158" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="K158">
         <v>0</v>
@@ -12969,16 +14715,16 @@
         <v>70</v>
       </c>
       <c r="P158">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R158">
         <v>0</v>
       </c>
       <c r="S158">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T158">
         <v>0</v>
@@ -12987,7 +14733,7 @@
         <v>0</v>
       </c>
       <c r="V158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W158">
         <v>56</v>
@@ -12996,15 +14742,15 @@
         <v>56</v>
       </c>
       <c r="Y158" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Z158" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="159" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="B159" t="s">
         <v>27</v>
@@ -13016,7 +14762,7 @@
         <v>29</v>
       </c>
       <c r="E159" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F159" t="s">
         <v>90</v>
@@ -13025,10 +14771,10 @@
         <v>32</v>
       </c>
       <c r="H159" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="I159" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="K159">
         <v>0</v>
@@ -13073,15 +14819,15 @@
         <v>43</v>
       </c>
       <c r="Y159" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Z159" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="160" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="B160" t="s">
         <v>27</v>
@@ -13093,7 +14839,7 @@
         <v>29</v>
       </c>
       <c r="E160" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F160" t="s">
         <v>94</v>
@@ -13102,10 +14848,10 @@
         <v>32</v>
       </c>
       <c r="H160" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="I160" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="K160">
         <v>0</v>
@@ -13113,16 +14859,52 @@
       <c r="L160">
         <v>0</v>
       </c>
+      <c r="M160">
+        <v>91</v>
+      </c>
+      <c r="N160">
+        <v>92</v>
+      </c>
+      <c r="O160">
+        <v>77</v>
+      </c>
+      <c r="P160">
+        <v>54</v>
+      </c>
+      <c r="Q160">
+        <v>8</v>
+      </c>
+      <c r="R160">
+        <v>0</v>
+      </c>
+      <c r="S160">
+        <v>61</v>
+      </c>
+      <c r="T160">
+        <v>0</v>
+      </c>
+      <c r="U160">
+        <v>0</v>
+      </c>
+      <c r="V160">
+        <v>0</v>
+      </c>
+      <c r="W160">
+        <v>67</v>
+      </c>
+      <c r="X160">
+        <v>67</v>
+      </c>
       <c r="Y160" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Z160" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="161" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="B161" t="s">
         <v>27</v>
@@ -13134,7 +14916,7 @@
         <v>29</v>
       </c>
       <c r="E161" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F161" t="s">
         <v>98</v>
@@ -13143,10 +14925,10 @@
         <v>32</v>
       </c>
       <c r="H161" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="I161" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="K161">
         <v>0</v>
@@ -13191,15 +14973,15 @@
         <v>62</v>
       </c>
       <c r="Y161" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Z161" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="162" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="B162" t="s">
         <v>27</v>
@@ -13211,7 +14993,7 @@
         <v>29</v>
       </c>
       <c r="E162" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F162" t="s">
         <v>102</v>
@@ -13220,7 +15002,7 @@
         <v>32</v>
       </c>
       <c r="H162" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="I162" t="s">
         <v>201</v>
@@ -13268,15 +15050,15 @@
         <v>41</v>
       </c>
       <c r="Y162" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Z162" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="163" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="B163" t="s">
         <v>27</v>
@@ -13288,7 +15070,7 @@
         <v>29</v>
       </c>
       <c r="E163" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F163" t="s">
         <v>106</v>
@@ -13297,10 +15079,10 @@
         <v>32</v>
       </c>
       <c r="H163" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="I163" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="K163">
         <v>0</v>
@@ -13308,16 +15090,52 @@
       <c r="L163">
         <v>0</v>
       </c>
+      <c r="M163">
+        <v>80</v>
+      </c>
+      <c r="N163">
+        <v>81</v>
+      </c>
+      <c r="O163">
+        <v>78</v>
+      </c>
+      <c r="P163">
+        <v>44</v>
+      </c>
+      <c r="Q163">
+        <v>62</v>
+      </c>
+      <c r="R163">
+        <v>0</v>
+      </c>
+      <c r="S163">
+        <v>69</v>
+      </c>
+      <c r="T163">
+        <v>0</v>
+      </c>
+      <c r="U163">
+        <v>28</v>
+      </c>
+      <c r="V163">
+        <v>3</v>
+      </c>
+      <c r="W163">
+        <v>78</v>
+      </c>
+      <c r="X163">
+        <v>78</v>
+      </c>
       <c r="Y163" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Z163" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="164" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="B164" t="s">
         <v>27</v>
@@ -13329,7 +15147,7 @@
         <v>29</v>
       </c>
       <c r="E164" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F164" t="s">
         <v>110</v>
@@ -13338,10 +15156,10 @@
         <v>32</v>
       </c>
       <c r="H164" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="I164" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="K164">
         <v>0</v>
@@ -13386,15 +15204,15 @@
         <v>44</v>
       </c>
       <c r="Y164" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Z164" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="165" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="B165" t="s">
         <v>27</v>
@@ -13406,7 +15224,7 @@
         <v>29</v>
       </c>
       <c r="E165" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F165" t="s">
         <v>31</v>
@@ -13418,7 +15236,7 @@
         <v>33</v>
       </c>
       <c r="I165" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="K165">
         <v>0</v>
@@ -13463,15 +15281,15 @@
         <v>62</v>
       </c>
       <c r="Y165" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z165" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="166" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="B166" t="s">
         <v>27</v>
@@ -13483,7 +15301,7 @@
         <v>29</v>
       </c>
       <c r="E166" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F166" t="s">
         <v>38</v>
@@ -13495,7 +15313,7 @@
         <v>39</v>
       </c>
       <c r="I166" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="K166">
         <v>0</v>
@@ -13540,15 +15358,15 @@
         <v>53</v>
       </c>
       <c r="Y166" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z166" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="167" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="B167" t="s">
         <v>27</v>
@@ -13560,7 +15378,7 @@
         <v>29</v>
       </c>
       <c r="E167" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F167" t="s">
         <v>42</v>
@@ -13569,10 +15387,10 @@
         <v>32</v>
       </c>
       <c r="H167" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="I167" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="K167">
         <v>0</v>
@@ -13580,16 +15398,52 @@
       <c r="L167">
         <v>0</v>
       </c>
+      <c r="M167">
+        <v>122</v>
+      </c>
+      <c r="N167">
+        <v>116</v>
+      </c>
+      <c r="O167">
+        <v>110</v>
+      </c>
+      <c r="P167">
+        <v>21</v>
+      </c>
+      <c r="Q167">
+        <v>2</v>
+      </c>
+      <c r="R167">
+        <v>0</v>
+      </c>
+      <c r="S167">
+        <v>65</v>
+      </c>
+      <c r="T167">
+        <v>0</v>
+      </c>
+      <c r="U167">
+        <v>0</v>
+      </c>
+      <c r="V167">
+        <v>0</v>
+      </c>
+      <c r="W167">
+        <v>67</v>
+      </c>
+      <c r="X167">
+        <v>67</v>
+      </c>
       <c r="Y167" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z167" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="168" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="B168" t="s">
         <v>27</v>
@@ -13601,7 +15455,7 @@
         <v>29</v>
       </c>
       <c r="E168" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F168" t="s">
         <v>46</v>
@@ -13610,10 +15464,10 @@
         <v>32</v>
       </c>
       <c r="H168" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="I168" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="K168">
         <v>0</v>
@@ -13658,15 +15512,15 @@
         <v>40</v>
       </c>
       <c r="Y168" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z168" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="169" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="B169" t="s">
         <v>27</v>
@@ -13678,7 +15532,7 @@
         <v>29</v>
       </c>
       <c r="E169" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F169" t="s">
         <v>50</v>
@@ -13687,10 +15541,10 @@
         <v>32</v>
       </c>
       <c r="H169" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="I169" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="K169">
         <v>0</v>
@@ -13735,15 +15589,15 @@
         <v>30</v>
       </c>
       <c r="Y169" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z169" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="170" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="B170" t="s">
         <v>27</v>
@@ -13755,7 +15609,7 @@
         <v>29</v>
       </c>
       <c r="E170" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F170" t="s">
         <v>54</v>
@@ -13764,10 +15618,10 @@
         <v>32</v>
       </c>
       <c r="H170" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="I170" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="K170">
         <v>0</v>
@@ -13812,15 +15666,15 @@
         <v>35</v>
       </c>
       <c r="Y170" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z170" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="171" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="B171" t="s">
         <v>27</v>
@@ -13832,7 +15686,7 @@
         <v>29</v>
       </c>
       <c r="E171" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F171" t="s">
         <v>58</v>
@@ -13841,10 +15695,10 @@
         <v>32</v>
       </c>
       <c r="H171" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="I171" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="K171">
         <v>0</v>
@@ -13889,15 +15743,15 @@
         <v>64</v>
       </c>
       <c r="Y171" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z171" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="172" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="B172" t="s">
         <v>27</v>
@@ -13909,7 +15763,7 @@
         <v>29</v>
       </c>
       <c r="E172" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F172" t="s">
         <v>62</v>
@@ -13918,10 +15772,10 @@
         <v>32</v>
       </c>
       <c r="H172" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="I172" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="K172">
         <v>0</v>
@@ -13966,15 +15820,15 @@
         <v>41</v>
       </c>
       <c r="Y172" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Z172" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="173" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="B173" t="s">
         <v>27</v>
@@ -13986,7 +15840,7 @@
         <v>29</v>
       </c>
       <c r="E173" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F173" t="s">
         <v>31</v>
@@ -13995,10 +15849,10 @@
         <v>32</v>
       </c>
       <c r="H173" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="I173" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="K173">
         <v>0</v>
@@ -14006,16 +15860,52 @@
       <c r="L173">
         <v>0</v>
       </c>
+      <c r="M173">
+        <v>91</v>
+      </c>
+      <c r="N173">
+        <v>94</v>
+      </c>
+      <c r="O173">
+        <v>94</v>
+      </c>
+      <c r="P173">
+        <v>25</v>
+      </c>
+      <c r="Q173">
+        <v>46</v>
+      </c>
+      <c r="R173">
+        <v>0</v>
+      </c>
+      <c r="S173">
+        <v>39</v>
+      </c>
+      <c r="T173">
+        <v>0</v>
+      </c>
+      <c r="U173">
+        <v>0</v>
+      </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
+      <c r="W173">
+        <v>62</v>
+      </c>
+      <c r="X173">
+        <v>62</v>
+      </c>
       <c r="Y173" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z173" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="174" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="B174" t="s">
         <v>27</v>
@@ -14027,7 +15917,7 @@
         <v>29</v>
       </c>
       <c r="E174" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F174" t="s">
         <v>38</v>
@@ -14036,10 +15926,10 @@
         <v>32</v>
       </c>
       <c r="H174" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="I174" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="K174">
         <v>0</v>
@@ -14084,15 +15974,15 @@
         <v>84</v>
       </c>
       <c r="Y174" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z174" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="175" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="B175" t="s">
         <v>27</v>
@@ -14104,7 +15994,7 @@
         <v>29</v>
       </c>
       <c r="E175" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F175" t="s">
         <v>42</v>
@@ -14113,10 +16003,10 @@
         <v>32</v>
       </c>
       <c r="H175" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="I175" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="K175">
         <v>0</v>
@@ -14161,15 +16051,15 @@
         <v>64</v>
       </c>
       <c r="Y175" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z175" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="176" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="B176" t="s">
         <v>27</v>
@@ -14181,7 +16071,7 @@
         <v>29</v>
       </c>
       <c r="E176" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F176" t="s">
         <v>46</v>
@@ -14190,10 +16080,10 @@
         <v>32</v>
       </c>
       <c r="H176" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="I176" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="K176">
         <v>0</v>
@@ -14238,15 +16128,15 @@
         <v>52</v>
       </c>
       <c r="Y176" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z176" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="177" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="B177" t="s">
         <v>27</v>
@@ -14258,7 +16148,7 @@
         <v>29</v>
       </c>
       <c r="E177" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F177" t="s">
         <v>50</v>
@@ -14267,10 +16157,10 @@
         <v>32</v>
       </c>
       <c r="H177" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="I177" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -14278,17 +16168,53 @@
       <c r="L177">
         <v>0</v>
       </c>
+      <c r="M177">
+        <v>145</v>
+      </c>
+      <c r="N177">
+        <v>184</v>
+      </c>
+      <c r="O177">
+        <v>184</v>
+      </c>
+      <c r="P177">
+        <v>107</v>
+      </c>
+      <c r="Q177">
+        <v>98</v>
+      </c>
+      <c r="R177">
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <v>110</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+      <c r="U177">
+        <v>0</v>
+      </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
+      <c r="W177">
+        <v>121</v>
+      </c>
+      <c r="X177">
+        <v>121</v>
+      </c>
       <c r="Y177" t="s">
+        <v>565</v>
+      </c>
+      <c r="Z177" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>579</v>
       </c>
-      <c r="Z177" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="178" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>593</v>
-      </c>
       <c r="B178" t="s">
         <v>27</v>
       </c>
@@ -14299,7 +16225,7 @@
         <v>29</v>
       </c>
       <c r="E178" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F178" t="s">
         <v>54</v>
@@ -14308,10 +16234,10 @@
         <v>32</v>
       </c>
       <c r="H178" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="I178" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="K178">
         <v>0</v>
@@ -14319,16 +16245,52 @@
       <c r="L178">
         <v>0</v>
       </c>
+      <c r="M178">
+        <v>108</v>
+      </c>
+      <c r="N178">
+        <v>107</v>
+      </c>
+      <c r="O178">
+        <v>83</v>
+      </c>
+      <c r="P178">
+        <v>69</v>
+      </c>
+      <c r="Q178">
+        <v>3</v>
+      </c>
+      <c r="R178">
+        <v>0</v>
+      </c>
+      <c r="S178">
+        <v>67</v>
+      </c>
+      <c r="T178">
+        <v>0</v>
+      </c>
+      <c r="U178">
+        <v>0</v>
+      </c>
+      <c r="V178">
+        <v>1</v>
+      </c>
+      <c r="W178">
+        <v>75</v>
+      </c>
+      <c r="X178">
+        <v>75</v>
+      </c>
       <c r="Y178" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z178" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="179" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="B179" t="s">
         <v>27</v>
@@ -14340,7 +16302,7 @@
         <v>29</v>
       </c>
       <c r="E179" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F179" t="s">
         <v>58</v>
@@ -14349,10 +16311,10 @@
         <v>32</v>
       </c>
       <c r="H179" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="I179" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="K179">
         <v>0</v>
@@ -14397,15 +16359,15 @@
         <v>56</v>
       </c>
       <c r="Y179" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z179" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="180" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="B180" t="s">
         <v>27</v>
@@ -14417,7 +16379,7 @@
         <v>29</v>
       </c>
       <c r="E180" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F180" t="s">
         <v>62</v>
@@ -14426,10 +16388,10 @@
         <v>32</v>
       </c>
       <c r="H180" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="I180" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="K180">
         <v>0</v>
@@ -14437,16 +16399,52 @@
       <c r="L180">
         <v>0</v>
       </c>
+      <c r="M180">
+        <v>39</v>
+      </c>
+      <c r="N180">
+        <v>38</v>
+      </c>
+      <c r="O180">
+        <v>31</v>
+      </c>
+      <c r="P180">
+        <v>24</v>
+      </c>
+      <c r="Q180">
+        <v>7</v>
+      </c>
+      <c r="R180">
+        <v>0</v>
+      </c>
+      <c r="S180">
+        <v>16</v>
+      </c>
+      <c r="T180">
+        <v>0</v>
+      </c>
+      <c r="U180">
+        <v>1</v>
+      </c>
+      <c r="V180">
+        <v>0</v>
+      </c>
+      <c r="W180">
+        <v>32</v>
+      </c>
+      <c r="X180">
+        <v>31</v>
+      </c>
       <c r="Y180" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z180" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="181" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="B181" t="s">
         <v>27</v>
@@ -14458,7 +16456,7 @@
         <v>29</v>
       </c>
       <c r="E181" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F181" t="s">
         <v>66</v>
@@ -14467,10 +16465,10 @@
         <v>32</v>
       </c>
       <c r="H181" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="I181" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="K181">
         <v>0</v>
@@ -14515,15 +16513,15 @@
         <v>55</v>
       </c>
       <c r="Y181" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z181" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="182" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="B182" t="s">
         <v>27</v>
@@ -14535,7 +16533,7 @@
         <v>29</v>
       </c>
       <c r="E182" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F182" t="s">
         <v>70</v>
@@ -14544,10 +16542,10 @@
         <v>32</v>
       </c>
       <c r="H182" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="I182" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="K182">
         <v>0</v>
@@ -14592,15 +16590,15 @@
         <v>43</v>
       </c>
       <c r="Y182" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z182" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="183" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="B183" t="s">
         <v>27</v>
@@ -14612,7 +16610,7 @@
         <v>29</v>
       </c>
       <c r="E183" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F183" t="s">
         <v>74</v>
@@ -14621,10 +16619,10 @@
         <v>32</v>
       </c>
       <c r="H183" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="I183" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="K183">
         <v>0</v>
@@ -14669,15 +16667,15 @@
         <v>34</v>
       </c>
       <c r="Y183" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z183" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="184" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="B184" t="s">
         <v>27</v>
@@ -14689,7 +16687,7 @@
         <v>29</v>
       </c>
       <c r="E184" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F184" t="s">
         <v>78</v>
@@ -14698,10 +16696,10 @@
         <v>32</v>
       </c>
       <c r="H184" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="I184" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="K184">
         <v>0</v>
@@ -14746,15 +16744,15 @@
         <v>19</v>
       </c>
       <c r="Y184" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z184" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="185" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="B185" t="s">
         <v>27</v>
@@ -14766,7 +16764,7 @@
         <v>29</v>
       </c>
       <c r="E185" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F185" t="s">
         <v>82</v>
@@ -14775,10 +16773,10 @@
         <v>32</v>
       </c>
       <c r="H185" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="I185" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="K185">
         <v>0</v>
@@ -14823,15 +16821,15 @@
         <v>54</v>
       </c>
       <c r="Y185" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z185" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="186" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="B186" t="s">
         <v>27</v>
@@ -14843,7 +16841,7 @@
         <v>29</v>
       </c>
       <c r="E186" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F186" t="s">
         <v>86</v>
@@ -14852,10 +16850,10 @@
         <v>32</v>
       </c>
       <c r="H186" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="I186" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -14863,16 +16861,52 @@
       <c r="L186">
         <v>0</v>
       </c>
+      <c r="M186">
+        <v>102</v>
+      </c>
+      <c r="N186">
+        <v>103</v>
+      </c>
+      <c r="O186">
+        <v>90</v>
+      </c>
+      <c r="P186">
+        <v>57</v>
+      </c>
+      <c r="Q186">
+        <v>5</v>
+      </c>
+      <c r="R186">
+        <v>0</v>
+      </c>
+      <c r="S186">
+        <v>86</v>
+      </c>
+      <c r="T186">
+        <v>0</v>
+      </c>
+      <c r="U186">
+        <v>1</v>
+      </c>
+      <c r="V186">
+        <v>0</v>
+      </c>
+      <c r="W186">
+        <v>91</v>
+      </c>
+      <c r="X186">
+        <v>90</v>
+      </c>
       <c r="Y186" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z186" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="187" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="B187" t="s">
         <v>27</v>
@@ -14884,7 +16918,7 @@
         <v>29</v>
       </c>
       <c r="E187" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F187" t="s">
         <v>90</v>
@@ -14893,10 +16927,10 @@
         <v>32</v>
       </c>
       <c r="H187" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="I187" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="K187">
         <v>0</v>
@@ -14904,16 +16938,52 @@
       <c r="L187">
         <v>0</v>
       </c>
+      <c r="M187">
+        <v>151</v>
+      </c>
+      <c r="N187">
+        <v>145</v>
+      </c>
+      <c r="O187">
+        <v>80</v>
+      </c>
+      <c r="P187">
+        <v>75</v>
+      </c>
+      <c r="Q187">
+        <v>1</v>
+      </c>
+      <c r="R187">
+        <v>0</v>
+      </c>
+      <c r="S187">
+        <v>64</v>
+      </c>
+      <c r="T187">
+        <v>1</v>
+      </c>
+      <c r="U187">
+        <v>0</v>
+      </c>
+      <c r="V187">
+        <v>0</v>
+      </c>
+      <c r="W187">
+        <v>82</v>
+      </c>
+      <c r="X187">
+        <v>80</v>
+      </c>
       <c r="Y187" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z187" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="188" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="B188" t="s">
         <v>27</v>
@@ -14925,7 +16995,7 @@
         <v>29</v>
       </c>
       <c r="E188" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F188" t="s">
         <v>94</v>
@@ -14934,10 +17004,10 @@
         <v>32</v>
       </c>
       <c r="H188" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="I188" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="K188">
         <v>0</v>
@@ -14982,15 +17052,15 @@
         <v>67</v>
       </c>
       <c r="Y188" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z188" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="189" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="B189" t="s">
         <v>27</v>
@@ -15002,7 +17072,7 @@
         <v>29</v>
       </c>
       <c r="E189" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F189" t="s">
         <v>98</v>
@@ -15011,10 +17081,10 @@
         <v>32</v>
       </c>
       <c r="H189" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="I189" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="K189">
         <v>0</v>
@@ -15022,16 +17092,52 @@
       <c r="L189">
         <v>0</v>
       </c>
+      <c r="M189">
+        <v>176</v>
+      </c>
+      <c r="N189">
+        <v>175</v>
+      </c>
+      <c r="O189">
+        <v>141</v>
+      </c>
+      <c r="P189">
+        <v>43</v>
+      </c>
+      <c r="Q189">
+        <v>77</v>
+      </c>
+      <c r="R189">
+        <v>1</v>
+      </c>
+      <c r="S189">
+        <v>63</v>
+      </c>
+      <c r="T189">
+        <v>1</v>
+      </c>
+      <c r="U189">
+        <v>0</v>
+      </c>
+      <c r="V189">
+        <v>0</v>
+      </c>
+      <c r="W189">
+        <v>98</v>
+      </c>
+      <c r="X189">
+        <v>98</v>
+      </c>
       <c r="Y189" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z189" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="190" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="B190" t="s">
         <v>27</v>
@@ -15043,7 +17149,7 @@
         <v>29</v>
       </c>
       <c r="E190" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F190" t="s">
         <v>102</v>
@@ -15052,10 +17158,10 @@
         <v>32</v>
       </c>
       <c r="H190" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="I190" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="K190">
         <v>0</v>
@@ -15100,15 +17206,15 @@
         <v>84</v>
       </c>
       <c r="Y190" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z190" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="191" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="B191" t="s">
         <v>27</v>
@@ -15120,7 +17226,7 @@
         <v>29</v>
       </c>
       <c r="E191" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F191" t="s">
         <v>106</v>
@@ -15129,10 +17235,10 @@
         <v>32</v>
       </c>
       <c r="H191" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="I191" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="K191">
         <v>0</v>
@@ -15177,15 +17283,15 @@
         <v>39</v>
       </c>
       <c r="Y191" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z191" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="192" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="B192" t="s">
         <v>27</v>
@@ -15197,7 +17303,7 @@
         <v>29</v>
       </c>
       <c r="E192" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F192" t="s">
         <v>110</v>
@@ -15206,10 +17312,10 @@
         <v>32</v>
       </c>
       <c r="H192" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="I192" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="K192">
         <v>0</v>
@@ -15217,16 +17323,52 @@
       <c r="L192">
         <v>0</v>
       </c>
+      <c r="M192">
+        <v>75</v>
+      </c>
+      <c r="N192">
+        <v>75</v>
+      </c>
+      <c r="O192">
+        <v>74</v>
+      </c>
+      <c r="P192">
+        <v>32</v>
+      </c>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192">
+        <v>0</v>
+      </c>
+      <c r="S192">
+        <v>25</v>
+      </c>
+      <c r="T192">
+        <v>0</v>
+      </c>
+      <c r="U192">
+        <v>0</v>
+      </c>
+      <c r="V192">
+        <v>0</v>
+      </c>
+      <c r="W192">
+        <v>45</v>
+      </c>
+      <c r="X192">
+        <v>45</v>
+      </c>
       <c r="Y192" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z192" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="193" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="B193" t="s">
         <v>27</v>
@@ -15238,7 +17380,7 @@
         <v>29</v>
       </c>
       <c r="E193" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F193" t="s">
         <v>114</v>
@@ -15247,7 +17389,7 @@
         <v>32</v>
       </c>
       <c r="H193" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="I193" t="s">
         <v>233</v>
@@ -15258,16 +17400,52 @@
       <c r="L193">
         <v>0</v>
       </c>
+      <c r="M193">
+        <v>48</v>
+      </c>
+      <c r="N193">
+        <v>45</v>
+      </c>
+      <c r="O193">
+        <v>45</v>
+      </c>
+      <c r="P193">
+        <v>16</v>
+      </c>
+      <c r="Q193">
+        <v>0</v>
+      </c>
+      <c r="R193">
+        <v>0</v>
+      </c>
+      <c r="S193">
+        <v>19</v>
+      </c>
+      <c r="T193">
+        <v>0</v>
+      </c>
+      <c r="U193">
+        <v>0</v>
+      </c>
+      <c r="V193">
+        <v>0</v>
+      </c>
+      <c r="W193">
+        <v>26</v>
+      </c>
+      <c r="X193">
+        <v>26</v>
+      </c>
       <c r="Y193" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z193" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="194" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="B194" t="s">
         <v>27</v>
@@ -15279,7 +17457,7 @@
         <v>29</v>
       </c>
       <c r="E194" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F194" t="s">
         <v>118</v>
@@ -15288,7 +17466,7 @@
         <v>32</v>
       </c>
       <c r="H194" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="I194" t="s">
         <v>218</v>
@@ -15299,16 +17477,52 @@
       <c r="L194">
         <v>0</v>
       </c>
+      <c r="M194">
+        <v>71</v>
+      </c>
+      <c r="N194">
+        <v>71</v>
+      </c>
+      <c r="O194">
+        <v>61</v>
+      </c>
+      <c r="P194">
+        <v>22</v>
+      </c>
+      <c r="Q194">
+        <v>29</v>
+      </c>
+      <c r="R194">
+        <v>0</v>
+      </c>
+      <c r="S194">
+        <v>26</v>
+      </c>
+      <c r="T194">
+        <v>0</v>
+      </c>
+      <c r="U194">
+        <v>3</v>
+      </c>
+      <c r="V194">
+        <v>0</v>
+      </c>
+      <c r="W194">
+        <v>53</v>
+      </c>
+      <c r="X194">
+        <v>53</v>
+      </c>
       <c r="Y194" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z194" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="195" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="B195" t="s">
         <v>27</v>
@@ -15320,7 +17534,7 @@
         <v>29</v>
       </c>
       <c r="E195" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F195" t="s">
         <v>122</v>
@@ -15329,10 +17543,10 @@
         <v>32</v>
       </c>
       <c r="H195" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="I195" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="K195">
         <v>0</v>
@@ -15340,16 +17554,52 @@
       <c r="L195">
         <v>0</v>
       </c>
+      <c r="M195">
+        <v>145</v>
+      </c>
+      <c r="N195">
+        <v>144</v>
+      </c>
+      <c r="O195">
+        <v>99</v>
+      </c>
+      <c r="P195">
+        <v>38</v>
+      </c>
+      <c r="Q195">
+        <v>3</v>
+      </c>
+      <c r="R195">
+        <v>2</v>
+      </c>
+      <c r="S195">
+        <v>23</v>
+      </c>
+      <c r="T195">
+        <v>0</v>
+      </c>
+      <c r="U195">
+        <v>3</v>
+      </c>
+      <c r="V195">
+        <v>0</v>
+      </c>
+      <c r="W195">
+        <v>84</v>
+      </c>
+      <c r="X195">
+        <v>84</v>
+      </c>
       <c r="Y195" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z195" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="196" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="B196" t="s">
         <v>27</v>
@@ -15361,7 +17611,7 @@
         <v>29</v>
       </c>
       <c r="E196" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F196" t="s">
         <v>126</v>
@@ -15370,10 +17620,10 @@
         <v>32</v>
       </c>
       <c r="H196" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="I196" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="K196">
         <v>0</v>
@@ -15418,15 +17668,15 @@
         <v>23</v>
       </c>
       <c r="Y196" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z196" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="197" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="B197" t="s">
         <v>27</v>
@@ -15438,7 +17688,7 @@
         <v>29</v>
       </c>
       <c r="E197" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F197" t="s">
         <v>31</v>
@@ -15447,10 +17697,10 @@
         <v>32</v>
       </c>
       <c r="H197" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="I197" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="K197">
         <v>0</v>
@@ -15458,16 +17708,52 @@
       <c r="L197">
         <v>0</v>
       </c>
+      <c r="M197">
+        <v>162</v>
+      </c>
+      <c r="N197">
+        <v>159</v>
+      </c>
+      <c r="O197">
+        <v>152</v>
+      </c>
+      <c r="P197">
+        <v>149</v>
+      </c>
+      <c r="Q197">
+        <v>48</v>
+      </c>
+      <c r="R197">
+        <v>90</v>
+      </c>
+      <c r="S197">
+        <v>133</v>
+      </c>
+      <c r="T197">
+        <v>0</v>
+      </c>
+      <c r="U197">
+        <v>39</v>
+      </c>
+      <c r="V197">
+        <v>1</v>
+      </c>
+      <c r="W197">
+        <v>152</v>
+      </c>
+      <c r="X197">
+        <v>152</v>
+      </c>
       <c r="Y197" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="Z197" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="198" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="B198" t="s">
         <v>27</v>
@@ -15479,7 +17765,7 @@
         <v>29</v>
       </c>
       <c r="E198" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F198" t="s">
         <v>38</v>
@@ -15488,10 +17774,10 @@
         <v>32</v>
       </c>
       <c r="H198" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="I198" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="K198">
         <v>0</v>
@@ -15536,15 +17822,15 @@
         <v>125</v>
       </c>
       <c r="Y198" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="Z198" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="199" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="B199" t="s">
         <v>27</v>
@@ -15556,7 +17842,7 @@
         <v>29</v>
       </c>
       <c r="E199" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F199" t="s">
         <v>42</v>
@@ -15565,10 +17851,10 @@
         <v>32</v>
       </c>
       <c r="H199" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="I199" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="K199">
         <v>0</v>
@@ -15613,15 +17899,15 @@
         <v>114</v>
       </c>
       <c r="Y199" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="Z199" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="200" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="B200" t="s">
         <v>27</v>
@@ -15633,7 +17919,7 @@
         <v>29</v>
       </c>
       <c r="E200" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F200" t="s">
         <v>46</v>
@@ -15642,10 +17928,10 @@
         <v>32</v>
       </c>
       <c r="H200" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="I200" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="K200">
         <v>0</v>
@@ -15653,16 +17939,52 @@
       <c r="L200">
         <v>0</v>
       </c>
+      <c r="M200">
+        <v>186</v>
+      </c>
+      <c r="N200">
+        <v>187</v>
+      </c>
+      <c r="O200">
+        <v>137</v>
+      </c>
+      <c r="P200">
+        <v>131</v>
+      </c>
+      <c r="Q200">
+        <v>3</v>
+      </c>
+      <c r="R200">
+        <v>24</v>
+      </c>
+      <c r="S200">
+        <v>131</v>
+      </c>
+      <c r="T200">
+        <v>0</v>
+      </c>
+      <c r="U200">
+        <v>1</v>
+      </c>
+      <c r="V200">
+        <v>0</v>
+      </c>
+      <c r="W200">
+        <v>143</v>
+      </c>
+      <c r="X200">
+        <v>136</v>
+      </c>
       <c r="Y200" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="Z200" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="201" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="B201" t="s">
         <v>27</v>
@@ -15674,7 +17996,7 @@
         <v>29</v>
       </c>
       <c r="E201" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F201" t="s">
         <v>50</v>
@@ -15683,10 +18005,10 @@
         <v>32</v>
       </c>
       <c r="H201" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="I201" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="K201">
         <v>0</v>
@@ -15731,16 +18053,16 @@
         <v>123</v>
       </c>
       <c r="Y201" t="s">
+        <v>635</v>
+      </c>
+      <c r="Z201" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>649</v>
       </c>
-      <c r="Z201" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="202" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>663</v>
-      </c>
       <c r="B202" t="s">
         <v>27</v>
       </c>
@@ -15751,7 +18073,7 @@
         <v>29</v>
       </c>
       <c r="E202" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F202" t="s">
         <v>54</v>
@@ -15760,10 +18082,10 @@
         <v>32</v>
       </c>
       <c r="H202" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="I202" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="K202">
         <v>0</v>
@@ -15771,16 +18093,52 @@
       <c r="L202">
         <v>0</v>
       </c>
+      <c r="M202">
+        <v>106</v>
+      </c>
+      <c r="N202">
+        <v>104</v>
+      </c>
+      <c r="O202">
+        <v>81</v>
+      </c>
+      <c r="P202">
+        <v>77</v>
+      </c>
+      <c r="Q202">
+        <v>0</v>
+      </c>
+      <c r="R202">
+        <v>10</v>
+      </c>
+      <c r="S202">
+        <v>65</v>
+      </c>
+      <c r="T202">
+        <v>0</v>
+      </c>
+      <c r="U202">
+        <v>0</v>
+      </c>
+      <c r="V202">
+        <v>0</v>
+      </c>
+      <c r="W202">
+        <v>77</v>
+      </c>
+      <c r="X202">
+        <v>77</v>
+      </c>
       <c r="Y202" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="Z202" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="203" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="B203" t="s">
         <v>27</v>
@@ -15792,7 +18150,7 @@
         <v>29</v>
       </c>
       <c r="E203" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F203" t="s">
         <v>58</v>
@@ -15801,10 +18159,10 @@
         <v>32</v>
       </c>
       <c r="H203" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="I203" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K203">
         <v>0</v>
@@ -15849,15 +18207,15 @@
         <v>60</v>
       </c>
       <c r="Y203" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="Z203" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="204" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="B204" t="s">
         <v>27</v>
@@ -15869,7 +18227,7 @@
         <v>29</v>
       </c>
       <c r="E204" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F204" t="s">
         <v>62</v>
@@ -15878,10 +18236,10 @@
         <v>32</v>
       </c>
       <c r="H204" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="I204" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="K204">
         <v>0</v>
@@ -15889,16 +18247,52 @@
       <c r="L204">
         <v>0</v>
       </c>
+      <c r="M204">
+        <v>101</v>
+      </c>
+      <c r="N204">
+        <v>101</v>
+      </c>
+      <c r="O204">
+        <v>76</v>
+      </c>
+      <c r="P204">
+        <v>60</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>1</v>
+      </c>
+      <c r="S204">
+        <v>57</v>
+      </c>
+      <c r="T204">
+        <v>0</v>
+      </c>
+      <c r="U204">
+        <v>0</v>
+      </c>
+      <c r="V204">
+        <v>0</v>
+      </c>
+      <c r="W204">
+        <v>68</v>
+      </c>
+      <c r="X204">
+        <v>68</v>
+      </c>
       <c r="Y204" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="Z204" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="205" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="B205" t="s">
         <v>27</v>
@@ -15910,7 +18304,7 @@
         <v>29</v>
       </c>
       <c r="E205" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F205" t="s">
         <v>66</v>
@@ -15919,7 +18313,7 @@
         <v>32</v>
       </c>
       <c r="H205" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="I205" t="s">
         <v>108</v>
@@ -15967,15 +18361,15 @@
         <v>65</v>
       </c>
       <c r="Y205" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="Z205" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="206" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="B206" t="s">
         <v>27</v>
@@ -15987,7 +18381,7 @@
         <v>29</v>
       </c>
       <c r="E206" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F206" t="s">
         <v>70</v>
@@ -15996,10 +18390,10 @@
         <v>32</v>
       </c>
       <c r="H206" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="I206" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="K206">
         <v>0</v>
@@ -16044,15 +18438,15 @@
         <v>107</v>
       </c>
       <c r="Y206" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="Z206" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="207" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="B207" t="s">
         <v>27</v>
@@ -16064,7 +18458,7 @@
         <v>29</v>
       </c>
       <c r="E207" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F207" t="s">
         <v>74</v>
@@ -16073,10 +18467,10 @@
         <v>32</v>
       </c>
       <c r="H207" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="I207" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="K207">
         <v>0</v>
@@ -16084,16 +18478,52 @@
       <c r="L207">
         <v>0</v>
       </c>
+      <c r="M207">
+        <v>95</v>
+      </c>
+      <c r="N207">
+        <v>94</v>
+      </c>
+      <c r="O207">
+        <v>73</v>
+      </c>
+      <c r="P207">
+        <v>50</v>
+      </c>
+      <c r="Q207">
+        <v>2</v>
+      </c>
+      <c r="R207">
+        <v>22</v>
+      </c>
+      <c r="S207">
+        <v>41</v>
+      </c>
+      <c r="T207">
+        <v>0</v>
+      </c>
+      <c r="U207">
+        <v>0</v>
+      </c>
+      <c r="V207">
+        <v>1</v>
+      </c>
+      <c r="W207">
+        <v>56</v>
+      </c>
+      <c r="X207">
+        <v>56</v>
+      </c>
       <c r="Y207" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="Z207" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="208" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="B208" t="s">
         <v>27</v>
@@ -16105,7 +18535,7 @@
         <v>29</v>
       </c>
       <c r="E208" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F208" t="s">
         <v>78</v>
@@ -16114,10 +18544,10 @@
         <v>32</v>
       </c>
       <c r="H208" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="I208" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="K208">
         <v>0</v>
@@ -16162,15 +18592,15 @@
         <v>52</v>
       </c>
       <c r="Y208" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="Z208" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="209" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="B209" t="s">
         <v>27</v>
@@ -16182,7 +18612,7 @@
         <v>29</v>
       </c>
       <c r="E209" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F209" t="s">
         <v>82</v>
@@ -16191,10 +18621,10 @@
         <v>32</v>
       </c>
       <c r="H209" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="I209" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="K209">
         <v>0</v>
@@ -16239,15 +18669,15 @@
         <v>47</v>
       </c>
       <c r="Y209" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="Z209" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="210" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="B210" t="s">
         <v>27</v>
@@ -16259,7 +18689,7 @@
         <v>29</v>
       </c>
       <c r="E210" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F210" t="s">
         <v>86</v>
@@ -16268,10 +18698,10 @@
         <v>32</v>
       </c>
       <c r="H210" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="I210" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="K210">
         <v>0</v>
@@ -16279,16 +18709,52 @@
       <c r="L210">
         <v>0</v>
       </c>
+      <c r="M210">
+        <v>99</v>
+      </c>
+      <c r="N210">
+        <v>97</v>
+      </c>
+      <c r="O210">
+        <v>74</v>
+      </c>
+      <c r="P210">
+        <v>74</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="R210">
+        <v>74</v>
+      </c>
+      <c r="S210">
+        <v>73</v>
+      </c>
+      <c r="T210">
+        <v>0</v>
+      </c>
+      <c r="U210">
+        <v>0</v>
+      </c>
+      <c r="V210">
+        <v>3</v>
+      </c>
+      <c r="W210">
+        <v>74</v>
+      </c>
+      <c r="X210">
+        <v>74</v>
+      </c>
       <c r="Y210" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="Z210" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="211" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="B211" t="s">
         <v>27</v>
@@ -16300,7 +18766,7 @@
         <v>29</v>
       </c>
       <c r="E211" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F211" t="s">
         <v>90</v>
@@ -16309,10 +18775,10 @@
         <v>32</v>
       </c>
       <c r="H211" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="I211" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="K211">
         <v>0</v>
@@ -16357,15 +18823,15 @@
         <v>62</v>
       </c>
       <c r="Y211" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="Z211" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="212" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="B212" t="s">
         <v>27</v>
@@ -16377,7 +18843,7 @@
         <v>29</v>
       </c>
       <c r="E212" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F212" t="s">
         <v>94</v>
@@ -16386,10 +18852,10 @@
         <v>32</v>
       </c>
       <c r="H212" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="I212" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="K212">
         <v>0</v>
@@ -16434,15 +18900,15 @@
         <v>55</v>
       </c>
       <c r="Y212" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="Z212" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="213" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="B213" t="s">
         <v>27</v>
@@ -16454,7 +18920,7 @@
         <v>29</v>
       </c>
       <c r="E213" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F213" t="s">
         <v>98</v>
@@ -16463,10 +18929,10 @@
         <v>32</v>
       </c>
       <c r="H213" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="I213" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="K213">
         <v>0</v>
@@ -16511,15 +18977,15 @@
         <v>47</v>
       </c>
       <c r="Y213" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="Z213" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="214" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="B214" t="s">
         <v>27</v>
@@ -16531,7 +18997,7 @@
         <v>29</v>
       </c>
       <c r="E214" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F214" t="s">
         <v>102</v>
@@ -16540,10 +19006,10 @@
         <v>32</v>
       </c>
       <c r="H214" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="I214" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="K214">
         <v>0</v>
@@ -16551,16 +19017,52 @@
       <c r="L214">
         <v>0</v>
       </c>
+      <c r="M214">
+        <v>144</v>
+      </c>
+      <c r="N214">
+        <v>142</v>
+      </c>
+      <c r="O214">
+        <v>97</v>
+      </c>
+      <c r="P214">
+        <v>84</v>
+      </c>
+      <c r="Q214">
+        <v>9</v>
+      </c>
+      <c r="R214">
+        <v>38</v>
+      </c>
+      <c r="S214">
+        <v>90</v>
+      </c>
+      <c r="T214">
+        <v>0</v>
+      </c>
+      <c r="U214">
+        <v>4</v>
+      </c>
+      <c r="V214">
+        <v>2</v>
+      </c>
+      <c r="W214">
+        <v>99</v>
+      </c>
+      <c r="X214">
+        <v>97</v>
+      </c>
       <c r="Y214" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="Z214" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="215" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="B215" t="s">
         <v>27</v>
@@ -16572,16 +19074,16 @@
         <v>29</v>
       </c>
       <c r="E215" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F215" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="G215" t="s">
         <v>32</v>
       </c>
       <c r="H215" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="I215" t="s">
         <v>186</v>
@@ -16629,15 +19131,15 @@
         <v>0</v>
       </c>
       <c r="Y215" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="Z215" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="216" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="B216" t="s">
         <v>27</v>
@@ -16649,7 +19151,7 @@
         <v>29</v>
       </c>
       <c r="E216" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F216" t="s">
         <v>184</v>
@@ -16658,7 +19160,7 @@
         <v>32</v>
       </c>
       <c r="H216" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="I216" t="s">
         <v>186</v>
@@ -16706,16 +19208,13 @@
         <v>0</v>
       </c>
       <c r="Y216" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="Z216" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:Z216" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>